--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetsametyuzlu/Analiz/analiz-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F6185B-F311-ED4E-AC89-EBBB90D6CD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E82E847-C8BE-EB4D-AE8D-7EE5C0A80E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" activeTab="2" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyuru" sheetId="6" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="Brans" sheetId="4" r:id="rId6"/>
     <sheet name="Kategori" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2008" uniqueCount="1782">
   <si>
     <t>UrunId</t>
   </si>
@@ -4839,13 +4839,562 @@
   </si>
   <si>
     <t>27.8190679</t>
+  </si>
+  <si>
+    <t>4.SINIF 7/24 HAFTA SONU ETKİNLİKLERİ</t>
+  </si>
+  <si>
+    <t>3.SINIF 7/24 HAFTA SONU ETKİNLİKLERİ</t>
+  </si>
+  <si>
+    <t>2.SINIF 7/24 HAFTA SONU ETKİNLİKLERİ</t>
+  </si>
+  <si>
+    <t>4.SINIF 7/24 HAFTALIK GENEL DEĞERLENDİRME SINAVI 8'Lİ</t>
+  </si>
+  <si>
+    <t>3.SINIF 7/24 HAFTALIK GENEL DEĞERLENDİRME SINAVI 8'Lİ</t>
+  </si>
+  <si>
+    <t>2.SINIF 7/24 HAFTALIK GENEL DEĞERLENDİRME SINAVI 8'Lİ</t>
+  </si>
+  <si>
+    <t>Sınıf Yayınları 4. Sınıf Etkinlikli Soru Bankası</t>
+  </si>
+  <si>
+    <t>3. Sınıf Etkinlikli Soru Bankası</t>
+  </si>
+  <si>
+    <t>BİLİM TAYFASI - 3 GELECEĞE DÖNÜŞ 10'LU HİKAYE</t>
+  </si>
+  <si>
+    <t>2. Sınıf Hamdi'nin Şiir Defteri</t>
+  </si>
+  <si>
+    <t>1.sınıf Masal Ve Öykülerle Okuduğumu Anlıyorum -</t>
+  </si>
+  <si>
+    <t>3.Sınıf Öğreten Yaprak Test</t>
+  </si>
+  <si>
+    <t>4.SINIF ULTRA 2'Lİ SET (MATEMATİK - PARAGRAF)</t>
+  </si>
+  <si>
+    <t>3.SINIF ULTRA 2'Lİ SET (MATEMATİK - PARAGRAF)</t>
+  </si>
+  <si>
+    <t>2.SINIF ULTRA 2'Lİ SET (MATEMATİK - PARAGRAF)</t>
+  </si>
+  <si>
+    <t>3.SINIF ULTRA PARAGRAF YENİ NESİL  SORU BANKASI</t>
+  </si>
+  <si>
+    <t>2.SINIF ULTRA PARAGRAF YENİ NESİL  SORU BANKASI</t>
+  </si>
+  <si>
+    <t>ANALİZ 1.SINIF 3'LÜ TAM SET(ETKİNLİKLİ SORU BANKASI+ÖĞRETEN TEST+PAKET DENEME)</t>
+  </si>
+  <si>
+    <t>ANALİZ 1.SINIF 2'Lİ PAKET(ÖĞRETEN TEST+PAKET DENEME)</t>
+  </si>
+  <si>
+    <t>4.SINIF ULTRA PARAGRAF YENİ NESİL  SORU BANKASI</t>
+  </si>
+  <si>
+    <t>4.SINIF YENİ NESİL PAKET DENEME 6'LI</t>
+  </si>
+  <si>
+    <t>3.SINIF YENİ NESİL PAKET DENEME 6'LI</t>
+  </si>
+  <si>
+    <t>2.SINIF YENİ NESİL PAKET DENEME 6'LI</t>
+  </si>
+  <si>
+    <t>1.SINIF YENİ NESİL PAKET DENEME 3'LÜ</t>
+  </si>
+  <si>
+    <t>1. SINIF ETKİNLİKLİ SORU BANKASI</t>
+  </si>
+  <si>
+    <t>1. SINIF YAPRAK TEST - ÖĞRETEN</t>
+  </si>
+  <si>
+    <t>KEYİFLİ PAKET 4.SINIF (PAKET DENEME - MASAL VE ÖYKÜLERLE OKUDUĞUMU ANLIYORUM)</t>
+  </si>
+  <si>
+    <t>KEYİFLİ PAKET 3.SINIF (PAKET DENEME - MASAL VE ÖYKÜLERLE OKUDUĞUMU ANLIYORUM)</t>
+  </si>
+  <si>
+    <t>KEYİFLİ PAKET 2.SINIF (PAKET DENEME - MASAL VE ÖYKÜLERLE OKUDUĞUMU ANLIYORUM)</t>
+  </si>
+  <si>
+    <t>3.SINIF ULTRA MATEMATİK SORU BANKASI</t>
+  </si>
+  <si>
+    <t>2.SINIF ULTRA MATEMATİK SORU BANKASI</t>
+  </si>
+  <si>
+    <t>BİLSEM 3'LÜ PAKET DENEME (1.SEVİYE - 2.SEVİYE - 3.SEVİYE)</t>
+  </si>
+  <si>
+    <t>BİLSEM NE İSTEDİĞİNİ BİLEN PAKET 3 (HAZIRLIK KİTABI + PAKET DENEME)</t>
+  </si>
+  <si>
+    <t>BİLSEM NE İSTEDİĞİNİ BİLEN PAKET 2(HAZIRLIK KİTABI + PAKET DENEME)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BİLSEM NE İSTEDİĞİNİ BİLEN PAKET 1 (HAZIRLIK KİTABI+PAKET DENEME) </t>
+  </si>
+  <si>
+    <t>BİLSEM PAKET DENEME 3.SEVİYE</t>
+  </si>
+  <si>
+    <t>BİLSEM PAKET DENEME 2.SEVİYE</t>
+  </si>
+  <si>
+    <t>BİLSEM PAKET DENEME 1.SEVİYE</t>
+  </si>
+  <si>
+    <t>CEMİL'LE MACERALAR SERİSİ HİKAYE SETİ 10'LU</t>
+  </si>
+  <si>
+    <t>AVANTAJLI BİLSEM 3'LÜSÜ (SEVİYE1+SEVİYE2+BİLSEM PAKET DENEME)</t>
+  </si>
+  <si>
+    <t>ANALİZ 4.SINIF SÜPER 3'LÜ  (6'LI PAKET DENEME+YAPRAK TEST+SORU BANKASI)</t>
+  </si>
+  <si>
+    <t>ANALİZ 3.SINIF SÜPER 3'LÜ (6'LI PAKET DENEME+YAPRAK TEST+SORU BANKASI)</t>
+  </si>
+  <si>
+    <t>ANALİZ 2.SINIF SÜPER 3'LÜ (6'LI PAKET DENEME+YAPRAK TEST+SORU BANKASI)</t>
+  </si>
+  <si>
+    <t>ANALİZ 4.SINIF SÜPER 2'Lİ  (6'LI PAKET DENEME+YAPRAK TEST)</t>
+  </si>
+  <si>
+    <t>ANALİZ 3.SINIF SÜPER 2'Lİ  (6'LI PAKET DENEME+YAPRAK TEST)</t>
+  </si>
+  <si>
+    <t>ANALİZ 2.SINIF SÜPER 2'Lİ  (6'LI PAKET DENEME+YAPRAK TEST)</t>
+  </si>
+  <si>
+    <t>4.SINIF ULTRA MATEMATİK SORU BANKASI</t>
+  </si>
+  <si>
+    <t>BİLSEM HAZIRLIK KİTABI 3'LÜ AVANTAJ SET</t>
+  </si>
+  <si>
+    <t>BİLSEM HAZIRLIK KİTABI SEVİYE 3</t>
+  </si>
+  <si>
+    <t>BİLSEM HAZIRLIK KİTABI SEVİYE 2</t>
+  </si>
+  <si>
+    <t>BİLSEM HAZIRLIK KİTABI SEVİYE 1</t>
+  </si>
+  <si>
+    <t>1.SINIF KIRMIZI ELMA OKUMA YAZMA SETİ</t>
+  </si>
+  <si>
+    <t>4.SINIF 7/24 TAM ÖĞRENME SETİ</t>
+  </si>
+  <si>
+    <t>3.SINIF 7/24 TAM ÖĞRENME SETİ</t>
+  </si>
+  <si>
+    <t>2.SINIF 7/24 TAM ÖĞRENME SETİ</t>
+  </si>
+  <si>
+    <t>Yine Recai</t>
+  </si>
+  <si>
+    <t>3.SINIF BİZİM TAYFA TATİLDE ETKİNLİK VE TATİL KİTABI+KARNE KILIFI</t>
+  </si>
+  <si>
+    <t>2.SINIF BİZİM TAYFA TATİLDE ETKİNLİK VE TATİL KİTABI+KARNE KILIFI HEDİYE</t>
+  </si>
+  <si>
+    <t>1.SINIF BİZİM TAYFA TATİLDE ETKİNLİK VE TATİL KİTABI+KARNE KILIIFI HEDİYE</t>
+  </si>
+  <si>
+    <t>BİLİM TAYFASI-2 HİKAYE SETİ</t>
+  </si>
+  <si>
+    <t>3.sınıf Temel Dersler Soru Bankası</t>
+  </si>
+  <si>
+    <t>4. Sınıf Temel Dersler Soru Bankası</t>
+  </si>
+  <si>
+    <t>BİLSEM PAKET DENEME SINAVI 4 SEVİYE BİRLİKTE</t>
+  </si>
+  <si>
+    <t>4.SININ DİN KÜLTÜRÜ ve AHLAK BİLGİSİ SORU BANKASI</t>
+  </si>
+  <si>
+    <t>4.SINIF ENGLISH WORKBOOK GRADE 4</t>
+  </si>
+  <si>
+    <t>4.SINIF ENGLISH PRATİCE BOOK GRADE 4</t>
+  </si>
+  <si>
+    <t>3.SINIF ENGLISH  WORKBOOK GRADE 3</t>
+  </si>
+  <si>
+    <t>3.SINIF ENGLISH PRATİCE BOOK GRADE 3</t>
+  </si>
+  <si>
+    <t>4.SINIF PROF. MATİ İLE EĞLENCELİ MATEMATİK KONU ANLATIMI (10 FASİKÜL)</t>
+  </si>
+  <si>
+    <t>3.SINIF PROF. MATİ İLE EĞLENCELİ MATEMATİK KONU ANLATIMI (6 FASİKÜL)</t>
+  </si>
+  <si>
+    <t>2.SINIF PROF. MATİ İLE EĞLENCELİ MATEMATİK KONU ANLATIMI (6 FASİKÜL)</t>
+  </si>
+  <si>
+    <t>BİLGİ DOLU MASALLAR HİKAYE SETİ 10'LU</t>
+  </si>
+  <si>
+    <t>4.SINIF İNGİLİZCE 5'Lİ BEE BOO HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>3.SINIF İNGİLİZCE 5'Lİ BEE BOO HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>2.SINIF İNGİLİZCE 5'Lİ BEE BOO HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>ETKİNLİKLERLE ATASÖZLERİ VE DEYİMLER - SEVİYE 2</t>
+  </si>
+  <si>
+    <t>3. SINIF HAMDİNİNİ ŞİİR DEFTERİ</t>
+  </si>
+  <si>
+    <t>GİZEMLİ DEDEKTİLER DERYA İLE DENİZ 10'LU HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>BİLİM TAYFASI HİKAYE SETİ</t>
+  </si>
+  <si>
+    <t>DEĞERLİ GÜNLER 10'LU HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>TOZLU KİTAPLAR 10'LU HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>HECE KİTABI</t>
+  </si>
+  <si>
+    <t>HEPSİ SENİN KUTULU HİKAYE SERİSİ</t>
+  </si>
+  <si>
+    <t>ETKİNLİKLERLE ATASÖZLERİ ve DEYİMLER SEVİYE-1</t>
+  </si>
+  <si>
+    <t>2.SINIF ETKİNLİKLİ SORU BANKASI</t>
+  </si>
+  <si>
+    <t>SENİN İÇİN KUTULU HİKAYE SERİSİ ''SEVGİYLE ÖĞRENİYORUM''</t>
+  </si>
+  <si>
+    <t>MASAL ve ÖYKÜLERLE OKUDUĞUMU ANLIYORUM 2.SINIF</t>
+  </si>
+  <si>
+    <t>2.SINIF ÖĞRETEN TEST</t>
+  </si>
+  <si>
+    <t>2.SINIF TEMEL DERSLER SORU BANKASI YENİ BASKI</t>
+  </si>
+  <si>
+    <t>2.SINIF ENGLİSH WORKBOOK GRADE 2</t>
+  </si>
+  <si>
+    <t>2.SINIF ENGLİSH PRATİCE BOOK GRADE 2</t>
+  </si>
+  <si>
+    <t>MACERA BAŞLIYOR HİKAYE SETİ KUTULU</t>
+  </si>
+  <si>
+    <t>MASAL ve ÖYKÜLERLE OKUDUĞUMU ANLIYORUM 3.SINIF</t>
+  </si>
+  <si>
+    <t>YENİ BİR BEN KUTULU HİKAYE SERİSİ 10'LU</t>
+  </si>
+  <si>
+    <t>MASAL ve ÖYKÜLERLE OKUDUĞUMU ANLIYORUM 4.SINIF</t>
+  </si>
+  <si>
+    <t>4.SINIF ÖĞRETEN TEST</t>
+  </si>
+  <si>
+    <t>BİLGELİK DOLU SÖZLER HİKAYE SETİ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/haftasonu4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/haftasonu3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/haftasonu2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/PaketKapak.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/1_org_zoom.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3286d158-864b-4f6e-bcf1-3250c1fe835f.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3.sınıf.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/930f6df1-2dfe-4aa6-887e-aeb60114d0d7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/9a571b28-8ee5-4ff1-b24d-178b08678a87.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/bc09f9cc-4eff-48b3-b729-31e8e62789c8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/paragrafsb3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/paragrafsb2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/96a9404d-ea83-4d87-a7b2-80658125b996.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/ef22d3a3-35b2-43d6-b1e4-51becf10b837.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/paragrafsb4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/yeninesilpak.den4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/yeninesilpak.den3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/yeninesilpak.den2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/yeninesilpak.den1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/etkinliksb1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/1yapraktest.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/b977f97c-cd41-4fa8-b1aa-feff2c871c7f.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/f6e7a142-1621-4484-b62f-522c18c11c7f.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3bd6a2c9-db74-49cf-b4ea-27c032899bf7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/ultra3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/ultra2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/bilsemüçlüpaketdeneme.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/neistediğinibilen3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/neistediğinibilen2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/neistediğinibilen1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/bilsempaketdeneme3.seviye .jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/bilsempaketdeneme2.seviye.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/bilsempaketdeneme1.seviye.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/cemil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3079c430-1ab1-4515-9658-92b731419d3a.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/d37fca24-31bb-443d-9372-9cd373dbbc5e.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/d46c2e4a-5a64-4eed-86c0-9e9c85307a0f.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/f1f234b1-9268-4455-a066-778d2bcb9692.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/4d781d17-9f13-445e-afc1-bf8e365d89f5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/55285c14-4dc4-41c6-a50d-f8966bb55d0e.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/4ae7a2ba-511d-466b-91ee-8fde9ea9f968.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/c303d4b7-53dc-45c5-913a-05b1144b3ba8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/2b98f39f-aa8e-4c47-803d-d16f93f91751.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3.sınıf.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/ee4150cf-2ba7-47fd-828a-9b2cedb8f23b.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/1KIRMIZI.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/4FASİKÜL.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3FASİKÜL.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/2.SINIFFASİKÜLSET.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3DB60CAF-D206-434D-9FD5-0C1C183B57DC.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/3.sınıftatil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/2.sınıftatil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/1.sınıftatil.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/kutu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/temeldersler.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/IMG-20220126-WA0001.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/din.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/4.SINF WORKBOOK.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/ingilizce.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/ingwrbk.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/4.sınıf.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/2.sınıf.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/kapak.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/atasözü.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/şiirdefteri.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/1.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/KAPAK.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/KPK.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/tozlu.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/HECE.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/kutu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/atasözleri.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/sınıf.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/masal.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/2.SINIF ÖĞRETEN TEST.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/workbook2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/practicebook.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/macera başlıyor.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/masalveöykü.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/kutUu.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/4.SINIF ÖĞRETEN TEST.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4857,6 +5406,13 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4889,7 +5445,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4919,6 +5475,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5413,8 +5971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D047E7-EA6B-3E4B-AFD8-759E54C63E66}">
   <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" activeCellId="1" sqref="E1:F1048576 H1:H1048576"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11776,10 +12334,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC60D17A-F93C-8A4F-9FCF-005B63D2EC4B}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:UW104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11787,7 +12345,7 @@
     <col min="1" max="6" width="30.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11807,16 +12365,1850 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1696</v>
+      </c>
       <c r="E2" s="2">
         <v>0</v>
       </c>
       <c r="F2" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1699</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1702</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1703</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1704</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1707</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0</v>
+      </c>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>0</v>
+      </c>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1711</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1712</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>0</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0</v>
+      </c>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1714</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1715</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1716</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1720</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0</v>
+      </c>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>0</v>
+      </c>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1722</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>0</v>
+      </c>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1723</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>0</v>
+      </c>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E35" s="2">
+        <v>1</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0</v>
+      </c>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1726</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="12"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="12"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1728</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0</v>
+      </c>
+      <c r="G38" s="12"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0</v>
+      </c>
+      <c r="G39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1730</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0</v>
+      </c>
+      <c r="G40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E41" s="2">
+        <v>0</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0</v>
+      </c>
+      <c r="G41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1732</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E43" s="2">
+        <v>1</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+      <c r="G43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1734</v>
+      </c>
+      <c r="E44" s="2">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="12"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1735</v>
+      </c>
+      <c r="E45" s="2">
+        <v>0</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="12"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1736</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0</v>
+      </c>
+      <c r="G46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1738</v>
+      </c>
+      <c r="E48" s="2">
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E49" s="2">
+        <v>0</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="12"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="12"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="12"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1742</v>
+      </c>
+      <c r="E52" s="2">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1743</v>
+      </c>
+      <c r="E53" s="2">
+        <v>0</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0</v>
+      </c>
+      <c r="G53" s="12"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1744</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0</v>
+      </c>
+      <c r="G54" s="12"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E55" s="2">
+        <v>0</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0</v>
+      </c>
+      <c r="G55" s="12"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1746</v>
+      </c>
+      <c r="E56" s="2">
+        <v>0</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0</v>
+      </c>
+      <c r="G56" s="12"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1747</v>
+      </c>
+      <c r="E57" s="2">
+        <v>0</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0</v>
+      </c>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1748</v>
+      </c>
+      <c r="E58" s="2">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0</v>
+      </c>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1749</v>
+      </c>
+      <c r="E59" s="2">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0</v>
+      </c>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E60" s="2">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2">
+        <v>0</v>
+      </c>
+      <c r="G60" s="12"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1751</v>
+      </c>
+      <c r="E61" s="2">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2">
+        <v>0</v>
+      </c>
+      <c r="G61" s="12"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E62" s="2">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="12"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E63" s="2">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="12"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E64" s="2">
+        <v>0</v>
+      </c>
+      <c r="F64" s="2">
+        <v>0</v>
+      </c>
+      <c r="G64" s="12"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E65" s="2">
+        <v>0</v>
+      </c>
+      <c r="F65" s="2">
+        <v>0</v>
+      </c>
+      <c r="G65" s="12"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E66" s="2">
+        <v>0</v>
+      </c>
+      <c r="F66" s="2">
+        <v>0</v>
+      </c>
+      <c r="G66" s="12"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E67" s="2">
+        <v>0</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1</v>
+      </c>
+      <c r="G67" s="12"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1665</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1757</v>
+      </c>
+      <c r="E68" s="2">
+        <v>0</v>
+      </c>
+      <c r="F68" s="2">
+        <v>0</v>
+      </c>
+      <c r="G68" s="12"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1756</v>
+      </c>
+      <c r="E69" s="2">
+        <v>0</v>
+      </c>
+      <c r="F69" s="2">
+        <v>0</v>
+      </c>
+      <c r="G69" s="12"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E70" s="2">
+        <v>0</v>
+      </c>
+      <c r="F70" s="2">
+        <v>0</v>
+      </c>
+      <c r="G70" s="12"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1740</v>
+      </c>
+      <c r="E71" s="2">
+        <v>0</v>
+      </c>
+      <c r="F71" s="2">
+        <v>0</v>
+      </c>
+      <c r="G71" s="12"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1669</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1759</v>
+      </c>
+      <c r="E72" s="2">
+        <v>0</v>
+      </c>
+      <c r="F72" s="2">
+        <v>0</v>
+      </c>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E73" s="2">
+        <v>0</v>
+      </c>
+      <c r="F73" s="2">
+        <v>0</v>
+      </c>
+      <c r="G73" s="12"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1761</v>
+      </c>
+      <c r="E74" s="2">
+        <v>0</v>
+      </c>
+      <c r="F74" s="2">
+        <v>1</v>
+      </c>
+      <c r="G74" s="12"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E75" s="2">
+        <v>0</v>
+      </c>
+      <c r="F75" s="2">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1763</v>
+      </c>
+      <c r="E76" s="2">
+        <v>0</v>
+      </c>
+      <c r="F76" s="2">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1764</v>
+      </c>
+      <c r="E77" s="2">
+        <v>0</v>
+      </c>
+      <c r="F77" s="2">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1675</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1765</v>
+      </c>
+      <c r="E78" s="2">
+        <v>0</v>
+      </c>
+      <c r="F78" s="2">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E79" s="2">
+        <v>1</v>
+      </c>
+      <c r="F79" s="2">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1677</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1767</v>
+      </c>
+      <c r="E80" s="2">
+        <v>0</v>
+      </c>
+      <c r="F80" s="2">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12"/>
+    </row>
+    <row r="81" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1768</v>
+      </c>
+      <c r="E81" s="2">
+        <v>0</v>
+      </c>
+      <c r="F81" s="2">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1679</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1769</v>
+      </c>
+      <c r="E82" s="2">
+        <v>0</v>
+      </c>
+      <c r="F82" s="2">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12"/>
+      <c r="AW82" s="11"/>
+      <c r="BG82" s="11"/>
+      <c r="BO82" s="11"/>
+      <c r="CB82" s="11"/>
+      <c r="CK82" s="11"/>
+      <c r="DE82" s="11"/>
+      <c r="DK82" s="11"/>
+      <c r="EE82" s="11"/>
+      <c r="EK82" s="11"/>
+      <c r="FE82" s="11"/>
+      <c r="FK82" s="11"/>
+      <c r="GE82" s="11"/>
+      <c r="GK82" s="11"/>
+      <c r="HE82" s="11"/>
+      <c r="HK82" s="11"/>
+      <c r="IE82" s="11"/>
+      <c r="IK82" s="11"/>
+      <c r="JE82" s="11"/>
+      <c r="JK82" s="11"/>
+      <c r="KE82" s="11"/>
+      <c r="KK82" s="11"/>
+      <c r="LE82" s="11"/>
+      <c r="LK82" s="11"/>
+      <c r="ME82" s="11"/>
+      <c r="MK82" s="11"/>
+      <c r="NE82" s="11"/>
+      <c r="NK82" s="11"/>
+      <c r="OE82" s="11"/>
+      <c r="OK82" s="11"/>
+      <c r="PE82" s="11"/>
+      <c r="PK82" s="11"/>
+      <c r="QE82" s="11"/>
+      <c r="QQ82" s="11"/>
+      <c r="QW82" s="11"/>
+      <c r="RQ82" s="11"/>
+      <c r="RW82" s="11"/>
+      <c r="SQ82" s="11"/>
+      <c r="SW82" s="11"/>
+      <c r="TQ82" s="11"/>
+      <c r="UC82" s="11"/>
+      <c r="UI82" s="11"/>
+      <c r="UV82" s="11"/>
+    </row>
+    <row r="83" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E83" s="2">
+        <v>0</v>
+      </c>
+      <c r="F83" s="2">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12"/>
+    </row>
+    <row r="84" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1681</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E84" s="2">
+        <v>0</v>
+      </c>
+      <c r="F84" s="2">
+        <v>0</v>
+      </c>
+      <c r="G84" s="12"/>
+    </row>
+    <row r="85" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1772</v>
+      </c>
+      <c r="E85" s="2">
+        <v>0</v>
+      </c>
+      <c r="F85" s="2">
+        <v>0</v>
+      </c>
+      <c r="G85" s="12"/>
+    </row>
+    <row r="86" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E86" s="2">
+        <v>0</v>
+      </c>
+      <c r="F86" s="2">
+        <v>0</v>
+      </c>
+      <c r="G86" s="12"/>
+    </row>
+    <row r="87" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E87" s="2">
+        <v>0</v>
+      </c>
+      <c r="F87" s="2">
+        <v>0</v>
+      </c>
+      <c r="G87" s="12"/>
+      <c r="AX87" s="11"/>
+      <c r="BH87" s="11"/>
+      <c r="BP87" s="11"/>
+      <c r="CC87" s="11"/>
+      <c r="CL87" s="11"/>
+      <c r="DF87" s="11"/>
+      <c r="DL87" s="11"/>
+      <c r="EF87" s="11"/>
+      <c r="EL87" s="11"/>
+      <c r="FF87" s="11"/>
+      <c r="FL87" s="11"/>
+      <c r="GF87" s="11"/>
+      <c r="GL87" s="11"/>
+      <c r="HF87" s="11"/>
+      <c r="HL87" s="11"/>
+      <c r="IF87" s="11"/>
+      <c r="IL87" s="11"/>
+      <c r="JF87" s="11"/>
+      <c r="JL87" s="11"/>
+      <c r="KF87" s="11"/>
+      <c r="KL87" s="11"/>
+      <c r="LF87" s="11"/>
+      <c r="LL87" s="11"/>
+      <c r="MF87" s="11"/>
+      <c r="ML87" s="11"/>
+      <c r="NF87" s="11"/>
+      <c r="NL87" s="11"/>
+      <c r="OF87" s="11"/>
+      <c r="OL87" s="11"/>
+      <c r="PF87" s="11"/>
+      <c r="PL87" s="11"/>
+      <c r="QF87" s="11"/>
+      <c r="QR87" s="11"/>
+      <c r="QX87" s="11"/>
+      <c r="RR87" s="11"/>
+      <c r="RX87" s="11"/>
+      <c r="SR87" s="11"/>
+      <c r="SX87" s="11"/>
+      <c r="TR87" s="11"/>
+      <c r="UD87" s="11"/>
+      <c r="UJ87" s="11"/>
+      <c r="UW87" s="11"/>
+    </row>
+    <row r="88" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E88" s="2">
+        <v>0</v>
+      </c>
+      <c r="F88" s="2">
+        <v>0</v>
+      </c>
+      <c r="G88" s="12"/>
+    </row>
+    <row r="89" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1775</v>
+      </c>
+      <c r="E89" s="2">
+        <v>0</v>
+      </c>
+      <c r="F89" s="2">
+        <v>0</v>
+      </c>
+      <c r="G89" s="12"/>
+    </row>
+    <row r="90" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1687</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1752</v>
+      </c>
+      <c r="E90" s="2">
+        <v>0</v>
+      </c>
+      <c r="F90" s="2">
+        <v>0</v>
+      </c>
+      <c r="G90" s="12"/>
+    </row>
+    <row r="91" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E91" s="2">
+        <v>0</v>
+      </c>
+      <c r="F91" s="2">
+        <v>0</v>
+      </c>
+      <c r="G91" s="12"/>
+    </row>
+    <row r="92" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1777</v>
+      </c>
+      <c r="E92" s="2">
+        <v>0</v>
+      </c>
+      <c r="F92" s="2">
+        <v>0</v>
+      </c>
+      <c r="G92" s="12"/>
+    </row>
+    <row r="93" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E93" s="2">
+        <v>0</v>
+      </c>
+      <c r="F93" s="2">
+        <v>0</v>
+      </c>
+      <c r="G93" s="12"/>
+    </row>
+    <row r="94" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E94" s="2">
+        <v>0</v>
+      </c>
+      <c r="F94" s="2">
+        <v>0</v>
+      </c>
+      <c r="G94" s="12"/>
+    </row>
+    <row r="95" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1780</v>
+      </c>
+      <c r="E95" s="2">
+        <v>0</v>
+      </c>
+      <c r="F95" s="2">
+        <v>0</v>
+      </c>
+      <c r="G95" s="12"/>
+    </row>
+    <row r="96" spans="1:569" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1779</v>
+      </c>
+      <c r="E96" s="2">
+        <v>0</v>
+      </c>
+      <c r="F96" s="2">
+        <v>0</v>
+      </c>
+      <c r="G96" s="12"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E97" s="2">
+        <v>0</v>
+      </c>
+      <c r="F97" s="2">
+        <v>0</v>
+      </c>
+      <c r="G97" s="12"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1771</v>
+      </c>
+      <c r="E98" s="2">
+        <v>0</v>
+      </c>
+      <c r="F98" s="2">
+        <v>0</v>
+      </c>
+      <c r="G98" s="12"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="G99" s="12"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G100" s="12"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G101" s="12"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G102" s="12"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G103" s="12"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G104" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetsametyuzlu/Analiz/analiz-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29BD98B4-9885-E94A-BA63-A11929C54B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74AAF7-6B43-B942-9BD5-44DA41E760DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyuru" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2010" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="1786">
   <si>
     <t>UrunId</t>
   </si>
@@ -5394,6 +5394,12 @@
   </si>
   <si>
     <t>LinkOrnekSayfa</t>
+  </si>
+  <si>
+    <t>DuyuruId</t>
+  </si>
+  <si>
+    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -5562,7 +5568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5621,12 +5627,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="22">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -5841,17 +5883,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="11" tableBorderDxfId="12" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}" name="Table2" displayName="Table2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="A1:F1048576" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{DE3B9617-741E-044E-9D3E-267FE56A4A37}" name="DuyuruId" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{92BFF065-FB4B-9C40-AE79-99FE6A53897E}" name="Baslik" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{38C2D1EB-649F-8446-9E0D-C8F560E43ED3}" name="Aciklama" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{0A45D7FC-0686-3044-83B5-578C3E5A005D}" name="Icerik" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B8F343BC-4D98-8E43-8275-959AAD414AA7}" name="Gorsel" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{392ECFFA-2D6A-8147-97D0-9B701C8F6D88}" name="Tarih" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{B661014B-3F7A-8843-A856-401EA8D79118}" name="Column1" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
   <autoFilter ref="A1:H1048576" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1F5D9ECD-F726-0749-A5AA-BEB64825AF02}" name="UrunId" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{F9F1E652-6601-F04D-8DD0-09E25FBE2A16}" name="Baslik" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{3B28419D-442A-B04B-BFBF-E76F5887D2F3}" name="Icerik" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{80CA3F0B-8C7C-D741-98F2-165AD886AF65}" name="Gorsel" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{EE4E33E0-FD50-C442-B60C-832136CFE4BB}" name="LinkSatinAlma" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{24E7A5CD-9EF7-8549-A5E7-975BA7B54B3B}" name="LinkOrnekSayfa" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{41F91A10-7B43-4141-8F7A-880821EDAE04}" name="Yeni" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{9A4CA489-4131-174D-A0E9-DBAB8A03CF2A}" name="Populer" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{1F5D9ECD-F726-0749-A5AA-BEB64825AF02}" name="UrunId" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{F9F1E652-6601-F04D-8DD0-09E25FBE2A16}" name="Baslik" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{3B28419D-442A-B04B-BFBF-E76F5887D2F3}" name="Icerik" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{80CA3F0B-8C7C-D741-98F2-165AD886AF65}" name="Gorsel" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{EE4E33E0-FD50-C442-B60C-832136CFE4BB}" name="LinkSatinAlma" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{24E7A5CD-9EF7-8549-A5E7-975BA7B54B3B}" name="LinkOrnekSayfa" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{41F91A10-7B43-4141-8F7A-880821EDAE04}" name="Yeni" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9A4CA489-4131-174D-A0E9-DBAB8A03CF2A}" name="Populer" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6174,125 +6232,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6788C3-64D3-6149-9712-E17D6103F6D0}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="2" customWidth="1"/>
+    <col min="2" max="6" width="30.83203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>45639</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="5">
+      <c r="F3" s="5">
         <v>45636</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>45605</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5">
         <v>45605</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="5">
         <v>45605</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{051509C2-0889-5042-9429-7616096C3D18}"/>
-    <hyperlink ref="D3:D6" r:id="rId2" display="https://place-hold.it/400x400" xr:uid="{9D00D590-A2BB-9C40-87F8-BBFA357A46D7}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{051509C2-0889-5042-9429-7616096C3D18}"/>
+    <hyperlink ref="E3:E6" r:id="rId2" display="https://place-hold.it/400x400" xr:uid="{9D00D590-A2BB-9C40-87F8-BBFA357A46D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -12698,8 +12778,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC60D17A-F93C-8A4F-9FCF-005B63D2EC4B}">
   <dimension ref="A1:UY1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="A1:H1"/>
+    <sheetView zoomScale="85" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetsametyuzlu/Analiz/analiz-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF74AAF7-6B43-B942-9BD5-44DA41E760DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5523BD-8468-4C4D-A513-B40C972990C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyuru" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1786">
   <si>
     <t>UrunId</t>
   </si>
@@ -5406,7 +5406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5425,6 +5425,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5635,7 +5641,58 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -5883,33 +5940,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}" name="Table2" displayName="Table2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}" name="Table2" displayName="Table2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
   <autoFilter ref="A1:F1048576" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DE3B9617-741E-044E-9D3E-267FE56A4A37}" name="DuyuruId" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{92BFF065-FB4B-9C40-AE79-99FE6A53897E}" name="Baslik" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{38C2D1EB-649F-8446-9E0D-C8F560E43ED3}" name="Aciklama" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{0A45D7FC-0686-3044-83B5-578C3E5A005D}" name="Icerik" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{B8F343BC-4D98-8E43-8275-959AAD414AA7}" name="Gorsel" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{392ECFFA-2D6A-8147-97D0-9B701C8F6D88}" name="Tarih" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{B661014B-3F7A-8843-A856-401EA8D79118}" name="Column1" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{DE3B9617-741E-044E-9D3E-267FE56A4A37}" name="DuyuruId" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{92BFF065-FB4B-9C40-AE79-99FE6A53897E}" name="Baslik" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{38C2D1EB-649F-8446-9E0D-C8F560E43ED3}" name="Aciklama" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{0A45D7FC-0686-3044-83B5-578C3E5A005D}" name="Icerik" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{B8F343BC-4D98-8E43-8275-959AAD414AA7}" name="Gorsel" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{392ECFFA-2D6A-8147-97D0-9B701C8F6D88}" name="Tarih" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{B661014B-3F7A-8843-A856-401EA8D79118}" name="Column1" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="10" headerRowBorderDxfId="20" tableBorderDxfId="21" totalsRowBorderDxfId="19">
-  <autoFilter ref="A1:H1048576" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{1F5D9ECD-F726-0749-A5AA-BEB64825AF02}" name="UrunId" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{F9F1E652-6601-F04D-8DD0-09E25FBE2A16}" name="Baslik" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3B28419D-442A-B04B-BFBF-E76F5887D2F3}" name="Icerik" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{80CA3F0B-8C7C-D741-98F2-165AD886AF65}" name="Gorsel" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{EE4E33E0-FD50-C442-B60C-832136CFE4BB}" name="LinkSatinAlma" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{24E7A5CD-9EF7-8549-A5E7-975BA7B54B3B}" name="LinkOrnekSayfa" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{41F91A10-7B43-4141-8F7A-880821EDAE04}" name="Yeni" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{9A4CA489-4131-174D-A0E9-DBAB8A03CF2A}" name="Populer" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}" name="Table1" displayName="Table1" ref="A1:K1048576" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:K1048576" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{1F5D9ECD-F726-0749-A5AA-BEB64825AF02}" name="UrunId" dataDxfId="21"/>
+    <tableColumn id="9" xr3:uid="{E9D9E9C8-FC70-2849-B43A-D3F8733E7397}" name="SinifId" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{CB0A29F0-93D1-4642-8A62-01AA7D368341}" name="BransId" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{400A9858-C2E9-5540-B651-910CEF8D016F}" name="KategoriId" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{F9F1E652-6601-F04D-8DD0-09E25FBE2A16}" name="Baslik" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{3B28419D-442A-B04B-BFBF-E76F5887D2F3}" name="Icerik" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{80CA3F0B-8C7C-D741-98F2-165AD886AF65}" name="Gorsel" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{EE4E33E0-FD50-C442-B60C-832136CFE4BB}" name="LinkSatinAlma" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{24E7A5CD-9EF7-8549-A5E7-975BA7B54B3B}" name="LinkOrnekSayfa" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{41F91A10-7B43-4141-8F7A-880821EDAE04}" name="Yeni" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{9A4CA489-4131-174D-A0E9-DBAB8A03CF2A}" name="Populer" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6234,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6788C3-64D3-6149-9712-E17D6103F6D0}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12776,2100 +12836,2149 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC60D17A-F93C-8A4F-9FCF-005B63D2EC4B}">
-  <dimension ref="A1:UY1048576"/>
+  <dimension ref="A1:VB1048576"/>
   <sheetViews>
-    <sheetView zoomScale="85" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.83203125" style="14" customWidth="1"/>
-    <col min="2" max="7" width="30.83203125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" style="15" customWidth="1"/>
-    <col min="2002" max="2002" width="2.5" customWidth="1"/>
+    <col min="1" max="4" width="30.83203125" style="14" customWidth="1"/>
+    <col min="5" max="10" width="30.83203125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="30.83203125" style="15" customWidth="1"/>
+    <col min="2005" max="2005" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="G1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="H1" s="20" t="s">
         <v>1782</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="I1" s="20" t="s">
         <v>1783</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="J1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>1599</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>1696</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="12">
-        <v>0</v>
-      </c>
-      <c r="H2" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="13" t="s">
         <v>1600</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>1697</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>1601</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>1698</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="12">
+        <v>0</v>
+      </c>
+      <c r="K4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="E5" s="13" t="s">
         <v>1602</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="G5" s="13" t="s">
         <v>1699</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="12">
+        <v>0</v>
+      </c>
+      <c r="K5" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>1603</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="G6" s="13" t="s">
         <v>1700</v>
       </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12">
-        <v>0</v>
-      </c>
-      <c r="H6" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="12">
+        <v>0</v>
+      </c>
+      <c r="K6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>1604</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>1700</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15">
-        <v>0</v>
-      </c>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="12">
+        <v>0</v>
+      </c>
+      <c r="K7" s="15">
+        <v>0</v>
+      </c>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="E8" s="13" t="s">
         <v>1605</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>1701</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="12">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="15">
-        <v>0</v>
-      </c>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K8" s="15">
+        <v>0</v>
+      </c>
+      <c r="L8" s="11"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>1606</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="G9" s="13" t="s">
         <v>1701</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="12">
+        <v>0</v>
+      </c>
+      <c r="K9" s="15">
+        <v>0</v>
+      </c>
+      <c r="L9" s="11"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>1607</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="G10" s="13" t="s">
         <v>1702</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="12">
-        <v>0</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="15">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="E11" s="13" t="s">
         <v>1608</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>1701</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="15">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K11" s="15">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="E12" s="13" t="s">
         <v>1609</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="G12" s="13" t="s">
         <v>1701</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <v>0</v>
-      </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="12">
+        <v>0</v>
+      </c>
+      <c r="K12" s="15">
+        <v>0</v>
+      </c>
+      <c r="L12" s="11"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="E13" s="13" t="s">
         <v>1610</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>1703</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="15">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="12">
+        <v>0</v>
+      </c>
+      <c r="K13" s="15">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>1611</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="G14" s="13" t="s">
         <v>1704</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12">
-        <v>0</v>
-      </c>
-      <c r="H14" s="15">
-        <v>0</v>
-      </c>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="12">
+        <v>0</v>
+      </c>
+      <c r="K14" s="15">
+        <v>0</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="E15" s="13" t="s">
         <v>1612</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>1705</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12">
-        <v>0</v>
-      </c>
-      <c r="H15" s="15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12">
+        <v>0</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>1613</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="G16" s="13" t="s">
         <v>1706</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12">
-        <v>0</v>
-      </c>
-      <c r="H16" s="15">
-        <v>0</v>
-      </c>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="12">
+        <v>0</v>
+      </c>
+      <c r="K16" s="15">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>1614</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="G17" s="13" t="s">
         <v>1707</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="12">
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="12">
+        <v>0</v>
+      </c>
+      <c r="K17" s="15">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="E18" s="13" t="s">
         <v>1615</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="G18" s="13" t="s">
         <v>1708</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12">
-        <v>0</v>
-      </c>
-      <c r="H18" s="15">
-        <v>0</v>
-      </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="E19" s="13" t="s">
         <v>1616</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>1709</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="15">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="11"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>1617</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="G20" s="13" t="s">
         <v>1710</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="12">
-        <v>0</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="12">
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>1618</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="G21" s="13" t="s">
         <v>1711</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="15">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="12">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
         <v>1</v>
       </c>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>1619</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="G22" s="13" t="s">
         <v>1712</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12">
-        <v>0</v>
-      </c>
-      <c r="H22" s="15">
-        <v>0</v>
-      </c>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="12">
+        <v>0</v>
+      </c>
+      <c r="K22" s="15">
+        <v>0</v>
+      </c>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>1620</v>
       </c>
-      <c r="D23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>1713</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12">
-        <v>0</v>
-      </c>
-      <c r="H23" s="15">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="12">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="11"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="E24" s="13" t="s">
         <v>1621</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="G24" s="13" t="s">
         <v>1714</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12">
-        <v>0</v>
-      </c>
-      <c r="H24" s="15">
-        <v>0</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="12">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15">
+        <v>0</v>
+      </c>
+      <c r="L24" s="11"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="E25" s="13" t="s">
         <v>1622</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="G25" s="13" t="s">
         <v>1715</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="15">
-        <v>0</v>
-      </c>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="12">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="E26" s="13" t="s">
         <v>1623</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="G26" s="13" t="s">
         <v>1716</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12">
-        <v>0</v>
-      </c>
-      <c r="H26" s="15">
-        <v>0</v>
-      </c>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="15">
+        <v>0</v>
+      </c>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="E27" s="13" t="s">
         <v>1624</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="G27" s="13" t="s">
         <v>1717</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="15">
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="15">
         <v>1</v>
       </c>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L27" s="11"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="E28" s="13" t="s">
         <v>1625</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="G28" s="13" t="s">
         <v>1718</v>
       </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="12">
-        <v>0</v>
-      </c>
-      <c r="H28" s="15">
-        <v>0</v>
-      </c>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="12">
+        <v>0</v>
+      </c>
+      <c r="K28" s="15">
+        <v>0</v>
+      </c>
+      <c r="L28" s="11"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="E29" s="13" t="s">
         <v>1626</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="G29" s="13" t="s">
         <v>1719</v>
       </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="15">
-        <v>0</v>
-      </c>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="12">
+        <v>0</v>
+      </c>
+      <c r="K29" s="15">
+        <v>0</v>
+      </c>
+      <c r="L29" s="11"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="E30" s="13" t="s">
         <v>1627</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="G30" s="13" t="s">
         <v>1720</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12">
-        <v>0</v>
-      </c>
-      <c r="H30" s="15">
-        <v>0</v>
-      </c>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="12">
+        <v>0</v>
+      </c>
+      <c r="K30" s="15">
+        <v>0</v>
+      </c>
+      <c r="L30" s="11"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="E31" s="13" t="s">
         <v>1628</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>1721</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="15">
-        <v>0</v>
-      </c>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="E32" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="G32" s="13" t="s">
         <v>1722</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="12">
-        <v>0</v>
-      </c>
-      <c r="H32" s="15">
-        <v>0</v>
-      </c>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="12">
+        <v>0</v>
+      </c>
+      <c r="K32" s="15">
+        <v>0</v>
+      </c>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="E33" s="13" t="s">
         <v>1630</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="G33" s="13" t="s">
         <v>1723</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12">
-        <v>0</v>
-      </c>
-      <c r="H33" s="15">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+      <c r="K33" s="15">
         <v>1</v>
       </c>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="E34" s="13" t="s">
         <v>1631</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="G34" s="13" t="s">
         <v>1724</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="12">
-        <v>0</v>
-      </c>
-      <c r="H34" s="15">
-        <v>0</v>
-      </c>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="15">
+        <v>0</v>
+      </c>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="E35" s="13" t="s">
         <v>1632</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="G35" s="13" t="s">
         <v>1725</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="12">
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="12">
         <v>1</v>
       </c>
-      <c r="H35" s="15">
-        <v>0</v>
-      </c>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K35" s="15">
+        <v>0</v>
+      </c>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="E36" s="13" t="s">
         <v>1633</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="G36" s="13" t="s">
         <v>1726</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="12">
-        <v>0</v>
-      </c>
-      <c r="H36" s="15">
-        <v>0</v>
-      </c>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12">
+        <v>0</v>
+      </c>
+      <c r="K36" s="15">
+        <v>0</v>
+      </c>
+      <c r="L36" s="11"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="E37" s="13" t="s">
         <v>1634</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="G37" s="13" t="s">
         <v>1727</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="15">
-        <v>0</v>
-      </c>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="12">
+        <v>0</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="11"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>37</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="E38" s="13" t="s">
         <v>1635</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="G38" s="13" t="s">
         <v>1728</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="12">
-        <v>0</v>
-      </c>
-      <c r="H38" s="15">
-        <v>0</v>
-      </c>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="12">
+        <v>0</v>
+      </c>
+      <c r="K38" s="15">
+        <v>0</v>
+      </c>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>38</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="E39" s="13" t="s">
         <v>1636</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="G39" s="13" t="s">
         <v>1729</v>
       </c>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="12">
-        <v>0</v>
-      </c>
-      <c r="H39" s="15">
-        <v>0</v>
-      </c>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="12">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15">
+        <v>0</v>
+      </c>
+      <c r="L39" s="11"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>39</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="E40" s="13" t="s">
         <v>1637</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>1730</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="12">
-        <v>0</v>
-      </c>
-      <c r="H40" s="15">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="12">
+        <v>0</v>
+      </c>
+      <c r="K40" s="15">
+        <v>0</v>
+      </c>
+      <c r="L40" s="11"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>40</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="E41" s="13" t="s">
         <v>1638</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="G41" s="13" t="s">
         <v>1731</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="15">
-        <v>0</v>
-      </c>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="12">
+        <v>0</v>
+      </c>
+      <c r="K41" s="15">
+        <v>0</v>
+      </c>
+      <c r="L41" s="11"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>41</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="E42" s="13" t="s">
         <v>1639</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="G42" s="13" t="s">
         <v>1732</v>
       </c>
-      <c r="E42" s="13"/>
-      <c r="F42" s="13"/>
-      <c r="G42" s="12">
-        <v>0</v>
-      </c>
-      <c r="H42" s="15">
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="15">
         <v>1</v>
       </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L42" s="11"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>42</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="E43" s="13" t="s">
         <v>1640</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="G43" s="13" t="s">
         <v>1733</v>
       </c>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="12">
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="12">
         <v>1</v>
       </c>
-      <c r="H43" s="15">
-        <v>0</v>
-      </c>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>43</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="E44" s="13" t="s">
         <v>1641</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="G44" s="13" t="s">
         <v>1734</v>
       </c>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="12">
-        <v>0</v>
-      </c>
-      <c r="H44" s="15">
-        <v>0</v>
-      </c>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+      <c r="K44" s="15">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>44</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="E45" s="13" t="s">
         <v>1642</v>
       </c>
-      <c r="D45" s="13" t="s">
+      <c r="G45" s="13" t="s">
         <v>1735</v>
       </c>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
-        <v>0</v>
-      </c>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="11"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>45</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="E46" s="13" t="s">
         <v>1643</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="G46" s="13" t="s">
         <v>1736</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
-      <c r="G46" s="12">
-        <v>0</v>
-      </c>
-      <c r="H46" s="15">
-        <v>0</v>
-      </c>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="12">
+        <v>0</v>
+      </c>
+      <c r="K46" s="15">
+        <v>0</v>
+      </c>
+      <c r="L46" s="11"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>46</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="E47" s="13" t="s">
         <v>1644</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="G47" s="13" t="s">
         <v>1737</v>
       </c>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="12">
-        <v>0</v>
-      </c>
-      <c r="H47" s="15">
-        <v>0</v>
-      </c>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
+      </c>
+      <c r="L47" s="11"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>47</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="E48" s="13" t="s">
         <v>1645</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="G48" s="13" t="s">
         <v>1738</v>
       </c>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12">
-        <v>0</v>
-      </c>
-      <c r="H48" s="15">
-        <v>0</v>
-      </c>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="12">
+        <v>0</v>
+      </c>
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="11"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>48</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="E49" s="13" t="s">
         <v>1646</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="G49" s="13" t="s">
         <v>1739</v>
       </c>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="15">
-        <v>0</v>
-      </c>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="12">
+        <v>0</v>
+      </c>
+      <c r="K49" s="15">
+        <v>0</v>
+      </c>
+      <c r="L49" s="11"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>49</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="E50" s="13" t="s">
         <v>1647</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="G50" s="13" t="s">
         <v>1740</v>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="12">
-        <v>0</v>
-      </c>
-      <c r="H50" s="15">
-        <v>0</v>
-      </c>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="15">
+        <v>0</v>
+      </c>
+      <c r="L50" s="11"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>50</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="E51" s="13" t="s">
         <v>1648</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="G51" s="13" t="s">
         <v>1741</v>
       </c>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="15">
-        <v>0</v>
-      </c>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="15">
+        <v>0</v>
+      </c>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>51</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="E52" s="13" t="s">
         <v>1649</v>
       </c>
-      <c r="D52" s="13" t="s">
+      <c r="G52" s="13" t="s">
         <v>1742</v>
       </c>
-      <c r="E52" s="13"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="12">
-        <v>0</v>
-      </c>
-      <c r="H52" s="15">
-        <v>0</v>
-      </c>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>52</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="E53" s="13" t="s">
         <v>1650</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="G53" s="13" t="s">
         <v>1743</v>
       </c>
-      <c r="E53" s="13"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="12">
-        <v>0</v>
-      </c>
-      <c r="H53" s="15">
-        <v>0</v>
-      </c>
-      <c r="I53" s="11"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+      <c r="K53" s="15">
+        <v>0</v>
+      </c>
+      <c r="L53" s="11"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>53</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="E54" s="13" t="s">
         <v>1651</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="G54" s="13" t="s">
         <v>1744</v>
       </c>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12">
-        <v>0</v>
-      </c>
-      <c r="H54" s="15">
-        <v>0</v>
-      </c>
-      <c r="I54" s="11"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+      <c r="K54" s="15">
+        <v>0</v>
+      </c>
+      <c r="L54" s="11"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>54</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="E55" s="13" t="s">
         <v>1652</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="G55" s="13" t="s">
         <v>1745</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-      <c r="H55" s="15">
-        <v>0</v>
-      </c>
-      <c r="I55" s="11"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="12">
+        <v>0</v>
+      </c>
+      <c r="K55" s="15">
+        <v>0</v>
+      </c>
+      <c r="L55" s="11"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>55</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="E56" s="13" t="s">
         <v>1653</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="G56" s="13" t="s">
         <v>1746</v>
       </c>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="12">
-        <v>0</v>
-      </c>
-      <c r="H56" s="15">
-        <v>0</v>
-      </c>
-      <c r="I56" s="11"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="12">
+        <v>0</v>
+      </c>
+      <c r="K56" s="15">
+        <v>0</v>
+      </c>
+      <c r="L56" s="11"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>56</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="E57" s="13" t="s">
         <v>1654</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="G57" s="13" t="s">
         <v>1747</v>
       </c>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12">
-        <v>0</v>
-      </c>
-      <c r="H57" s="15">
-        <v>0</v>
-      </c>
-      <c r="I57" s="11"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+      <c r="K57" s="15">
+        <v>0</v>
+      </c>
+      <c r="L57" s="11"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>57</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="E58" s="13" t="s">
         <v>1655</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="G58" s="13" t="s">
         <v>1748</v>
       </c>
-      <c r="E58" s="13"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-      <c r="H58" s="15">
-        <v>0</v>
-      </c>
-      <c r="I58" s="11"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="11"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>58</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="E59" s="13" t="s">
         <v>1656</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="G59" s="13" t="s">
         <v>1749</v>
       </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="12">
-        <v>0</v>
-      </c>
-      <c r="H59" s="15">
-        <v>0</v>
-      </c>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="15">
+        <v>0</v>
+      </c>
+      <c r="L59" s="11"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>59</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="E60" s="13" t="s">
         <v>1657</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="G60" s="13" t="s">
         <v>1750</v>
       </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="12">
-        <v>0</v>
-      </c>
-      <c r="H60" s="15">
-        <v>0</v>
-      </c>
-      <c r="I60" s="11"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="12">
+        <v>0</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0</v>
+      </c>
+      <c r="L60" s="11"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>60</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="E61" s="13" t="s">
         <v>1658</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="G61" s="13" t="s">
         <v>1751</v>
       </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="12">
-        <v>0</v>
-      </c>
-      <c r="H61" s="15">
-        <v>0</v>
-      </c>
-      <c r="I61" s="11"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="12">
+        <v>0</v>
+      </c>
+      <c r="K61" s="15">
+        <v>0</v>
+      </c>
+      <c r="L61" s="11"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>61</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="E62" s="13" t="s">
         <v>1659</v>
       </c>
-      <c r="D62" s="13" t="s">
+      <c r="G62" s="13" t="s">
         <v>1752</v>
       </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="15">
-        <v>0</v>
-      </c>
-      <c r="I62" s="11"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="12">
+        <v>0</v>
+      </c>
+      <c r="K62" s="15">
+        <v>0</v>
+      </c>
+      <c r="L62" s="11"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>62</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="E63" s="13" t="s">
         <v>1660</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="G63" s="13" t="s">
         <v>1752</v>
       </c>
-      <c r="E63" s="13"/>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="15">
-        <v>0</v>
-      </c>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="12">
+        <v>0</v>
+      </c>
+      <c r="K63" s="15">
+        <v>0</v>
+      </c>
+      <c r="L63" s="11"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>63</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="E64" s="13" t="s">
         <v>1661</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="G64" s="13" t="s">
         <v>1753</v>
       </c>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12">
-        <v>0</v>
-      </c>
-      <c r="H64" s="15">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+      <c r="K64" s="15">
+        <v>0</v>
+      </c>
+      <c r="L64" s="11"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>64</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="E65" s="13" t="s">
         <v>1662</v>
       </c>
-      <c r="D65" s="13" t="s">
+      <c r="G65" s="13" t="s">
         <v>1754</v>
       </c>
-      <c r="E65" s="13"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="12">
-        <v>0</v>
-      </c>
-      <c r="H65" s="15">
-        <v>0</v>
-      </c>
-      <c r="I65" s="11"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+      <c r="K65" s="15">
+        <v>0</v>
+      </c>
+      <c r="L65" s="11"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>65</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="E66" s="13" t="s">
         <v>1663</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="G66" s="13" t="s">
         <v>1755</v>
       </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12">
-        <v>0</v>
-      </c>
-      <c r="H66" s="15">
-        <v>0</v>
-      </c>
-      <c r="I66" s="11"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="11"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>66</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="E67" s="13" t="s">
         <v>1664</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="G67" s="13" t="s">
         <v>1756</v>
       </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="13"/>
-      <c r="G67" s="12">
-        <v>0</v>
-      </c>
-      <c r="H67" s="15">
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="15">
         <v>1</v>
       </c>
-      <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L67" s="11"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>67</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="E68" s="13" t="s">
         <v>1665</v>
       </c>
-      <c r="D68" s="13" t="s">
+      <c r="G68" s="13" t="s">
         <v>1757</v>
       </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="13"/>
-      <c r="G68" s="12">
-        <v>0</v>
-      </c>
-      <c r="H68" s="15">
-        <v>0</v>
-      </c>
-      <c r="I68" s="11"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+      <c r="K68" s="15">
+        <v>0</v>
+      </c>
+      <c r="L68" s="11"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>68</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="E69" s="13" t="s">
         <v>1666</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="G69" s="13" t="s">
         <v>1756</v>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-      <c r="G69" s="12">
-        <v>0</v>
-      </c>
-      <c r="H69" s="15">
-        <v>0</v>
-      </c>
-      <c r="I69" s="11"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+      <c r="K69" s="15">
+        <v>0</v>
+      </c>
+      <c r="L69" s="11"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>69</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="E70" s="13" t="s">
         <v>1667</v>
       </c>
-      <c r="D70" s="13" t="s">
+      <c r="G70" s="13" t="s">
         <v>1758</v>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="13"/>
-      <c r="G70" s="12">
-        <v>0</v>
-      </c>
-      <c r="H70" s="15">
-        <v>0</v>
-      </c>
-      <c r="I70" s="11"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="12">
+        <v>0</v>
+      </c>
+      <c r="K70" s="15">
+        <v>0</v>
+      </c>
+      <c r="L70" s="11"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>70</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="E71" s="13" t="s">
         <v>1668</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="G71" s="13" t="s">
         <v>1740</v>
       </c>
-      <c r="E71" s="13"/>
-      <c r="F71" s="13"/>
-      <c r="G71" s="12">
-        <v>0</v>
-      </c>
-      <c r="H71" s="15">
-        <v>0</v>
-      </c>
-      <c r="I71" s="11"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H71" s="13"/>
+      <c r="I71" s="13"/>
+      <c r="J71" s="12">
+        <v>0</v>
+      </c>
+      <c r="K71" s="15">
+        <v>0</v>
+      </c>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>71</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>1669</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="G72" s="13" t="s">
         <v>1759</v>
       </c>
-      <c r="E72" s="13"/>
-      <c r="F72" s="13"/>
-      <c r="G72" s="12">
-        <v>0</v>
-      </c>
-      <c r="H72" s="15">
-        <v>0</v>
-      </c>
-      <c r="I72" s="11"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="12">
+        <v>0</v>
+      </c>
+      <c r="K72" s="15">
+        <v>0</v>
+      </c>
+      <c r="L72" s="11"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>72</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="E73" s="13" t="s">
         <v>1670</v>
       </c>
-      <c r="D73" s="13" t="s">
+      <c r="G73" s="13" t="s">
         <v>1760</v>
       </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="12">
-        <v>0</v>
-      </c>
-      <c r="H73" s="15">
-        <v>0</v>
-      </c>
-      <c r="I73" s="11"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="12">
+        <v>0</v>
+      </c>
+      <c r="K73" s="15">
+        <v>0</v>
+      </c>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>73</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="E74" s="13" t="s">
         <v>1671</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="G74" s="13" t="s">
         <v>1761</v>
       </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="13"/>
-      <c r="G74" s="12">
-        <v>0</v>
-      </c>
-      <c r="H74" s="15">
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="15">
         <v>1</v>
       </c>
-      <c r="I74" s="11"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>74</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="E75" s="13" t="s">
         <v>1672</v>
       </c>
-      <c r="D75" s="13" t="s">
+      <c r="G75" s="13" t="s">
         <v>1762</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12">
-        <v>0</v>
-      </c>
-      <c r="H75" s="15">
-        <v>0</v>
-      </c>
-      <c r="I75" s="11"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="15">
+        <v>0</v>
+      </c>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>75</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="E76" s="13" t="s">
         <v>1673</v>
       </c>
-      <c r="D76" s="13" t="s">
+      <c r="G76" s="13" t="s">
         <v>1763</v>
       </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="12">
-        <v>0</v>
-      </c>
-      <c r="H76" s="15">
-        <v>0</v>
-      </c>
-      <c r="I76" s="11"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+      <c r="K76" s="15">
+        <v>0</v>
+      </c>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>76</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="E77" s="13" t="s">
         <v>1674</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="G77" s="13" t="s">
         <v>1764</v>
       </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="12">
-        <v>0</v>
-      </c>
-      <c r="H77" s="15">
-        <v>0</v>
-      </c>
-      <c r="I77" s="11"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+      <c r="K77" s="15">
+        <v>0</v>
+      </c>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>77</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="E78" s="13" t="s">
         <v>1675</v>
       </c>
-      <c r="D78" s="13" t="s">
+      <c r="G78" s="13" t="s">
         <v>1765</v>
       </c>
-      <c r="E78" s="13"/>
-      <c r="F78" s="13"/>
-      <c r="G78" s="12">
-        <v>0</v>
-      </c>
-      <c r="H78" s="15">
-        <v>0</v>
-      </c>
-      <c r="I78" s="11"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="12">
+        <v>0</v>
+      </c>
+      <c r="K78" s="15">
+        <v>0</v>
+      </c>
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>78</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="E79" s="13" t="s">
         <v>1676</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="G79" s="13" t="s">
         <v>1766</v>
       </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13"/>
-      <c r="G79" s="12">
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="12">
         <v>1</v>
       </c>
-      <c r="H79" s="15">
-        <v>0</v>
-      </c>
-      <c r="I79" s="11"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="K79" s="15">
+        <v>0</v>
+      </c>
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>79</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="E80" s="13" t="s">
         <v>1677</v>
       </c>
-      <c r="D80" s="13" t="s">
+      <c r="G80" s="13" t="s">
         <v>1767</v>
       </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="13"/>
-      <c r="G80" s="12">
-        <v>0</v>
-      </c>
-      <c r="H80" s="15">
-        <v>0</v>
-      </c>
-      <c r="I80" s="11"/>
-    </row>
-    <row r="81" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="12">
+        <v>0</v>
+      </c>
+      <c r="K80" s="15">
+        <v>0</v>
+      </c>
+      <c r="L80" s="11"/>
+    </row>
+    <row r="81" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>80</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="E81" s="13" t="s">
         <v>1678</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="G81" s="13" t="s">
         <v>1768</v>
       </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="13"/>
-      <c r="G81" s="12">
-        <v>0</v>
-      </c>
-      <c r="H81" s="15">
-        <v>0</v>
-      </c>
-      <c r="I81" s="11"/>
-    </row>
-    <row r="82" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="12">
+        <v>0</v>
+      </c>
+      <c r="K81" s="15">
+        <v>0</v>
+      </c>
+      <c r="L81" s="11"/>
+    </row>
+    <row r="82" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>81</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="E82" s="13" t="s">
         <v>1679</v>
       </c>
-      <c r="D82" s="13" t="s">
+      <c r="G82" s="13" t="s">
         <v>1769</v>
       </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13"/>
-      <c r="G82" s="12">
-        <v>0</v>
-      </c>
-      <c r="H82" s="15">
-        <v>0</v>
-      </c>
-      <c r="I82" s="11"/>
-      <c r="AY82" s="10"/>
-      <c r="BI82" s="10"/>
-      <c r="BQ82" s="10"/>
-      <c r="CD82" s="10"/>
-      <c r="CM82" s="10"/>
-      <c r="DG82" s="10"/>
-      <c r="DM82" s="10"/>
-      <c r="EG82" s="10"/>
-      <c r="EM82" s="10"/>
-      <c r="FG82" s="10"/>
-      <c r="FM82" s="10"/>
-      <c r="GG82" s="10"/>
-      <c r="GM82" s="10"/>
-      <c r="HG82" s="10"/>
-      <c r="HM82" s="10"/>
-      <c r="IG82" s="10"/>
-      <c r="IM82" s="10"/>
-      <c r="JG82" s="10"/>
-      <c r="JM82" s="10"/>
-      <c r="KG82" s="10"/>
-      <c r="KM82" s="10"/>
-      <c r="LG82" s="10"/>
-      <c r="LM82" s="10"/>
-      <c r="MG82" s="10"/>
-      <c r="MM82" s="10"/>
-      <c r="NG82" s="10"/>
-      <c r="NM82" s="10"/>
-      <c r="OG82" s="10"/>
-      <c r="OM82" s="10"/>
-      <c r="PG82" s="10"/>
-      <c r="PM82" s="10"/>
-      <c r="QG82" s="10"/>
-      <c r="QS82" s="10"/>
-      <c r="QY82" s="10"/>
-      <c r="RS82" s="10"/>
-      <c r="RY82" s="10"/>
-      <c r="SS82" s="10"/>
-      <c r="SY82" s="10"/>
-      <c r="TS82" s="10"/>
-      <c r="UE82" s="10"/>
-      <c r="UK82" s="10"/>
-      <c r="UX82" s="10"/>
-    </row>
-    <row r="83" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="11"/>
+      <c r="BB82" s="10"/>
+      <c r="BL82" s="10"/>
+      <c r="BT82" s="10"/>
+      <c r="CG82" s="10"/>
+      <c r="CP82" s="10"/>
+      <c r="DJ82" s="10"/>
+      <c r="DP82" s="10"/>
+      <c r="EJ82" s="10"/>
+      <c r="EP82" s="10"/>
+      <c r="FJ82" s="10"/>
+      <c r="FP82" s="10"/>
+      <c r="GJ82" s="10"/>
+      <c r="GP82" s="10"/>
+      <c r="HJ82" s="10"/>
+      <c r="HP82" s="10"/>
+      <c r="IJ82" s="10"/>
+      <c r="IP82" s="10"/>
+      <c r="JJ82" s="10"/>
+      <c r="JP82" s="10"/>
+      <c r="KJ82" s="10"/>
+      <c r="KP82" s="10"/>
+      <c r="LJ82" s="10"/>
+      <c r="LP82" s="10"/>
+      <c r="MJ82" s="10"/>
+      <c r="MP82" s="10"/>
+      <c r="NJ82" s="10"/>
+      <c r="NP82" s="10"/>
+      <c r="OJ82" s="10"/>
+      <c r="OP82" s="10"/>
+      <c r="PJ82" s="10"/>
+      <c r="PP82" s="10"/>
+      <c r="QJ82" s="10"/>
+      <c r="QV82" s="10"/>
+      <c r="RB82" s="10"/>
+      <c r="RV82" s="10"/>
+      <c r="SB82" s="10"/>
+      <c r="SV82" s="10"/>
+      <c r="TB82" s="10"/>
+      <c r="TV82" s="10"/>
+      <c r="UH82" s="10"/>
+      <c r="UN82" s="10"/>
+      <c r="VA82" s="10"/>
+    </row>
+    <row r="83" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>82</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>1680</v>
       </c>
-      <c r="D83" s="13" t="s">
+      <c r="G83" s="13" t="s">
         <v>1770</v>
       </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="13"/>
-      <c r="G83" s="12">
-        <v>0</v>
-      </c>
-      <c r="H83" s="15">
-        <v>0</v>
-      </c>
-      <c r="I83" s="11"/>
-    </row>
-    <row r="84" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="12">
+        <v>0</v>
+      </c>
+      <c r="K83" s="15">
+        <v>0</v>
+      </c>
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>83</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="E84" s="13" t="s">
         <v>1681</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="G84" s="13" t="s">
         <v>1771</v>
       </c>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13"/>
-      <c r="G84" s="12">
-        <v>0</v>
-      </c>
-      <c r="H84" s="15">
-        <v>0</v>
-      </c>
-      <c r="I84" s="11"/>
-    </row>
-    <row r="85" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="12">
+        <v>0</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="11"/>
+    </row>
+    <row r="85" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>84</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="E85" s="13" t="s">
         <v>1682</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="G85" s="13" t="s">
         <v>1772</v>
       </c>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13"/>
-      <c r="G85" s="12">
-        <v>0</v>
-      </c>
-      <c r="H85" s="15">
-        <v>0</v>
-      </c>
-      <c r="I85" s="11"/>
-    </row>
-    <row r="86" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="12">
+        <v>0</v>
+      </c>
+      <c r="K85" s="15">
+        <v>0</v>
+      </c>
+      <c r="L85" s="11"/>
+    </row>
+    <row r="86" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>85</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="E86" s="13" t="s">
         <v>1683</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="G86" s="13" t="s">
         <v>1773</v>
       </c>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13"/>
-      <c r="G86" s="12">
-        <v>0</v>
-      </c>
-      <c r="H86" s="15">
-        <v>0</v>
-      </c>
-      <c r="I86" s="11"/>
-    </row>
-    <row r="87" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="12">
+        <v>0</v>
+      </c>
+      <c r="K86" s="15">
+        <v>0</v>
+      </c>
+      <c r="L86" s="11"/>
+    </row>
+    <row r="87" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>86</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="E87" s="13" t="s">
         <v>1684</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="G87" s="13" t="s">
         <v>1771</v>
       </c>
-      <c r="E87" s="13"/>
-      <c r="F87" s="13"/>
-      <c r="G87" s="12">
-        <v>0</v>
-      </c>
-      <c r="H87" s="15">
-        <v>0</v>
-      </c>
-      <c r="I87" s="11"/>
-      <c r="AZ87" s="10"/>
-      <c r="BJ87" s="10"/>
-      <c r="BR87" s="10"/>
-      <c r="CE87" s="10"/>
-      <c r="CN87" s="10"/>
-      <c r="DH87" s="10"/>
-      <c r="DN87" s="10"/>
-      <c r="EH87" s="10"/>
-      <c r="EN87" s="10"/>
-      <c r="FH87" s="10"/>
-      <c r="FN87" s="10"/>
-      <c r="GH87" s="10"/>
-      <c r="GN87" s="10"/>
-      <c r="HH87" s="10"/>
-      <c r="HN87" s="10"/>
-      <c r="IH87" s="10"/>
-      <c r="IN87" s="10"/>
-      <c r="JH87" s="10"/>
-      <c r="JN87" s="10"/>
-      <c r="KH87" s="10"/>
-      <c r="KN87" s="10"/>
-      <c r="LH87" s="10"/>
-      <c r="LN87" s="10"/>
-      <c r="MH87" s="10"/>
-      <c r="MN87" s="10"/>
-      <c r="NH87" s="10"/>
-      <c r="NN87" s="10"/>
-      <c r="OH87" s="10"/>
-      <c r="ON87" s="10"/>
-      <c r="PH87" s="10"/>
-      <c r="PN87" s="10"/>
-      <c r="QH87" s="10"/>
-      <c r="QT87" s="10"/>
-      <c r="QZ87" s="10"/>
-      <c r="RT87" s="10"/>
-      <c r="RZ87" s="10"/>
-      <c r="ST87" s="10"/>
-      <c r="SZ87" s="10"/>
-      <c r="TT87" s="10"/>
-      <c r="UF87" s="10"/>
-      <c r="UL87" s="10"/>
-      <c r="UY87" s="10"/>
-    </row>
-    <row r="88" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H87" s="13"/>
+      <c r="I87" s="13"/>
+      <c r="J87" s="12">
+        <v>0</v>
+      </c>
+      <c r="K87" s="15">
+        <v>0</v>
+      </c>
+      <c r="L87" s="11"/>
+      <c r="BC87" s="10"/>
+      <c r="BM87" s="10"/>
+      <c r="BU87" s="10"/>
+      <c r="CH87" s="10"/>
+      <c r="CQ87" s="10"/>
+      <c r="DK87" s="10"/>
+      <c r="DQ87" s="10"/>
+      <c r="EK87" s="10"/>
+      <c r="EQ87" s="10"/>
+      <c r="FK87" s="10"/>
+      <c r="FQ87" s="10"/>
+      <c r="GK87" s="10"/>
+      <c r="GQ87" s="10"/>
+      <c r="HK87" s="10"/>
+      <c r="HQ87" s="10"/>
+      <c r="IK87" s="10"/>
+      <c r="IQ87" s="10"/>
+      <c r="JK87" s="10"/>
+      <c r="JQ87" s="10"/>
+      <c r="KK87" s="10"/>
+      <c r="KQ87" s="10"/>
+      <c r="LK87" s="10"/>
+      <c r="LQ87" s="10"/>
+      <c r="MK87" s="10"/>
+      <c r="MQ87" s="10"/>
+      <c r="NK87" s="10"/>
+      <c r="NQ87" s="10"/>
+      <c r="OK87" s="10"/>
+      <c r="OQ87" s="10"/>
+      <c r="PK87" s="10"/>
+      <c r="PQ87" s="10"/>
+      <c r="QK87" s="10"/>
+      <c r="QW87" s="10"/>
+      <c r="RC87" s="10"/>
+      <c r="RW87" s="10"/>
+      <c r="SC87" s="10"/>
+      <c r="SW87" s="10"/>
+      <c r="TC87" s="10"/>
+      <c r="TW87" s="10"/>
+      <c r="UI87" s="10"/>
+      <c r="UO87" s="10"/>
+      <c r="VB87" s="10"/>
+    </row>
+    <row r="88" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>87</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="E88" s="13" t="s">
         <v>1685</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="G88" s="13" t="s">
         <v>1774</v>
       </c>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13"/>
-      <c r="G88" s="12">
-        <v>0</v>
-      </c>
-      <c r="H88" s="15">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11"/>
-    </row>
-    <row r="89" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H88" s="13"/>
+      <c r="I88" s="13"/>
+      <c r="J88" s="12">
+        <v>0</v>
+      </c>
+      <c r="K88" s="15">
+        <v>0</v>
+      </c>
+      <c r="L88" s="11"/>
+    </row>
+    <row r="89" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>88</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="E89" s="13" t="s">
         <v>1686</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="G89" s="13" t="s">
         <v>1775</v>
       </c>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13"/>
-      <c r="G89" s="12">
-        <v>0</v>
-      </c>
-      <c r="H89" s="15">
-        <v>0</v>
-      </c>
-      <c r="I89" s="11"/>
-    </row>
-    <row r="90" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H89" s="13"/>
+      <c r="I89" s="13"/>
+      <c r="J89" s="12">
+        <v>0</v>
+      </c>
+      <c r="K89" s="15">
+        <v>0</v>
+      </c>
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>89</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="E90" s="13" t="s">
         <v>1687</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="G90" s="13" t="s">
         <v>1752</v>
       </c>
-      <c r="E90" s="13"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="12">
-        <v>0</v>
-      </c>
-      <c r="H90" s="15">
-        <v>0</v>
-      </c>
-      <c r="I90" s="11"/>
-    </row>
-    <row r="91" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H90" s="13"/>
+      <c r="I90" s="13"/>
+      <c r="J90" s="12">
+        <v>0</v>
+      </c>
+      <c r="K90" s="15">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11"/>
+    </row>
+    <row r="91" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>90</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="E91" s="13" t="s">
         <v>1688</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="G91" s="13" t="s">
         <v>1776</v>
       </c>
-      <c r="E91" s="13"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="12">
-        <v>0</v>
-      </c>
-      <c r="H91" s="15">
-        <v>0</v>
-      </c>
-      <c r="I91" s="11"/>
-    </row>
-    <row r="92" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H91" s="13"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="12">
+        <v>0</v>
+      </c>
+      <c r="K91" s="15">
+        <v>0</v>
+      </c>
+      <c r="L91" s="11"/>
+    </row>
+    <row r="92" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>91</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="E92" s="13" t="s">
         <v>1689</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="G92" s="13" t="s">
         <v>1777</v>
       </c>
-      <c r="E92" s="13"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="12">
-        <v>0</v>
-      </c>
-      <c r="H92" s="15">
-        <v>0</v>
-      </c>
-      <c r="I92" s="11"/>
-    </row>
-    <row r="93" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H92" s="13"/>
+      <c r="I92" s="13"/>
+      <c r="J92" s="12">
+        <v>0</v>
+      </c>
+      <c r="K92" s="15">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11"/>
+    </row>
+    <row r="93" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>92</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="E93" s="13" t="s">
         <v>1690</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="G93" s="13" t="s">
         <v>1778</v>
       </c>
-      <c r="E93" s="13"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="12">
-        <v>0</v>
-      </c>
-      <c r="H93" s="15">
-        <v>0</v>
-      </c>
-      <c r="I93" s="11"/>
-    </row>
-    <row r="94" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H93" s="13"/>
+      <c r="I93" s="13"/>
+      <c r="J93" s="12">
+        <v>0</v>
+      </c>
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="11"/>
+    </row>
+    <row r="94" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>93</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="E94" s="13" t="s">
         <v>1691</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="G94" s="13" t="s">
         <v>1779</v>
       </c>
-      <c r="E94" s="13"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="12">
-        <v>0</v>
-      </c>
-      <c r="H94" s="15">
-        <v>0</v>
-      </c>
-      <c r="I94" s="11"/>
-    </row>
-    <row r="95" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H94" s="13"/>
+      <c r="I94" s="13"/>
+      <c r="J94" s="12">
+        <v>0</v>
+      </c>
+      <c r="K94" s="15">
+        <v>0</v>
+      </c>
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>94</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="E95" s="13" t="s">
         <v>1692</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="G95" s="13" t="s">
         <v>1780</v>
       </c>
-      <c r="E95" s="13"/>
-      <c r="F95" s="13"/>
-      <c r="G95" s="12">
-        <v>0</v>
-      </c>
-      <c r="H95" s="15">
-        <v>0</v>
-      </c>
-      <c r="I95" s="11"/>
-    </row>
-    <row r="96" spans="1:571" x14ac:dyDescent="0.2">
+      <c r="H95" s="13"/>
+      <c r="I95" s="13"/>
+      <c r="J95" s="12">
+        <v>0</v>
+      </c>
+      <c r="K95" s="15">
+        <v>0</v>
+      </c>
+      <c r="L95" s="11"/>
+    </row>
+    <row r="96" spans="1:574" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>95</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="E96" s="13" t="s">
         <v>1693</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="G96" s="13" t="s">
         <v>1779</v>
       </c>
-      <c r="E96" s="13"/>
-      <c r="F96" s="13"/>
-      <c r="G96" s="12">
-        <v>0</v>
-      </c>
-      <c r="H96" s="15">
-        <v>0</v>
-      </c>
-      <c r="I96" s="11"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H96" s="13"/>
+      <c r="I96" s="13"/>
+      <c r="J96" s="12">
+        <v>0</v>
+      </c>
+      <c r="K96" s="15">
+        <v>0</v>
+      </c>
+      <c r="L96" s="11"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>96</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="E97" s="13" t="s">
         <v>1694</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="G97" s="13" t="s">
         <v>1781</v>
       </c>
-      <c r="E97" s="13"/>
-      <c r="F97" s="13"/>
-      <c r="G97" s="12">
-        <v>0</v>
-      </c>
-      <c r="H97" s="15">
-        <v>0</v>
-      </c>
-      <c r="I97" s="11"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H97" s="13"/>
+      <c r="I97" s="13"/>
+      <c r="J97" s="12">
+        <v>0</v>
+      </c>
+      <c r="K97" s="15">
+        <v>0</v>
+      </c>
+      <c r="L97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>97</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="E98" s="13" t="s">
         <v>1695</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="G98" s="13" t="s">
         <v>1771</v>
       </c>
-      <c r="E98" s="13"/>
-      <c r="F98" s="13"/>
-      <c r="G98" s="12">
-        <v>0</v>
-      </c>
-      <c r="H98" s="15">
-        <v>0</v>
-      </c>
-      <c r="I98" s="11"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="I99" s="11"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I100" s="11"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I101" s="11"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I102" s="11"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I103" s="11"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I104" s="11"/>
-    </row>
-    <row r="1048576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H98" s="13"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="12">
+        <v>0</v>
+      </c>
+      <c r="K98" s="15">
+        <v>0</v>
+      </c>
+      <c r="L98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="L99" s="11"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="11"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="11"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L102" s="11"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L103" s="11"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L104" s="11"/>
+    </row>
+    <row r="1048576" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1048576" s="16"/>
-      <c r="B1048576" s="17"/>
-      <c r="C1048576" s="17"/>
-      <c r="D1048576" s="17"/>
+      <c r="B1048576" s="16"/>
+      <c r="C1048576" s="16"/>
+      <c r="D1048576" s="16"/>
       <c r="E1048576" s="17"/>
       <c r="F1048576" s="17"/>
       <c r="G1048576" s="17"/>
-      <c r="H1048576" s="18"/>
+      <c r="H1048576" s="17"/>
+      <c r="I1048576" s="17"/>
+      <c r="J1048576" s="17"/>
+      <c r="K1048576" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{60EB6D89-8388-EE42-8B44-04B4BCA3748D}">
+          <x14:formula1>
+            <xm:f>Brans!$B$2:$B$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C369</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8CDC2CBA-ACB2-3846-B997-180B21A3DE2A}">
+          <x14:formula1>
+            <xm:f>Sinif!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B802</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{28DF4ABD-73D3-9D42-B1F3-6C79CF9C0744}">
+          <x14:formula1>
+            <xm:f>Kategori!$B$2:$B$46</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D611</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -14968,7 +15077,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetsametyuzlu/Analiz/analiz-web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD5523BD-8468-4C4D-A513-B40C972990C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17ED148-4681-044E-8BBB-6393E5C33C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19920" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
+    <workbookView xWindow="7720" yWindow="760" windowWidth="26840" windowHeight="19920" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyuru" sheetId="6" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Kategori" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1785">
   <si>
     <t>UrunId</t>
   </si>
@@ -5132,9 +5133,6 @@
     <t>BİLGELİK DOLU SÖZLER HİKAYE SETİ</t>
   </si>
   <si>
-    <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/haftasonu4.jpg</t>
-  </si>
-  <si>
     <t xml:space="preserve"> https://doneweb.s3.eu-central-1.amazonaws.com/project/project-7/product/haftasonu3.jpg</t>
   </si>
   <si>
@@ -5399,7 +5397,7 @@
     <t>DuyuruId</t>
   </si>
   <si>
-    <t>Column1</t>
+    <t>/static/gorsel1.jpg</t>
   </si>
 </sst>
 </file>
@@ -5574,7 +5572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5624,16 +5622,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5641,113 +5636,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -5897,17 +5786,61 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <top style="thin">
           <color indexed="64"/>
         </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -5926,6 +5859,35 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -5940,36 +5902,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}" name="Table2" displayName="Table2" ref="A1:F1048576" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
-  <autoFilter ref="A1:F1048576" xr:uid="{3501C3F6-8886-8F47-8558-B45051A094FC}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{DE3B9617-741E-044E-9D3E-267FE56A4A37}" name="DuyuruId" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{92BFF065-FB4B-9C40-AE79-99FE6A53897E}" name="Baslik" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{38C2D1EB-649F-8446-9E0D-C8F560E43ED3}" name="Aciklama" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{0A45D7FC-0686-3044-83B5-578C3E5A005D}" name="Icerik" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{B8F343BC-4D98-8E43-8275-959AAD414AA7}" name="Gorsel" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{392ECFFA-2D6A-8147-97D0-9B701C8F6D88}" name="Tarih" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B661014B-3F7A-8843-A856-401EA8D79118}" name="Column1" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}" name="Table1" displayName="Table1" ref="A1:K1048576" totalsRowShown="0" headerRowDxfId="12" dataDxfId="13" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}" name="Table1" displayName="Table1" ref="A1:K1048576" totalsRowShown="0" headerRowDxfId="15" dataDxfId="13" headerRowBorderDxfId="14" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <autoFilter ref="A1:K1048576" xr:uid="{9A805CC1-5FDB-9443-83DD-CD060B906837}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{1F5D9ECD-F726-0749-A5AA-BEB64825AF02}" name="UrunId" dataDxfId="21"/>
-    <tableColumn id="9" xr3:uid="{E9D9E9C8-FC70-2849-B43A-D3F8733E7397}" name="SinifId" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{CB0A29F0-93D1-4642-8A62-01AA7D368341}" name="BransId" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{400A9858-C2E9-5540-B651-910CEF8D016F}" name="KategoriId" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{F9F1E652-6601-F04D-8DD0-09E25FBE2A16}" name="Baslik" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{3B28419D-442A-B04B-BFBF-E76F5887D2F3}" name="Icerik" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{80CA3F0B-8C7C-D741-98F2-165AD886AF65}" name="Gorsel" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{EE4E33E0-FD50-C442-B60C-832136CFE4BB}" name="LinkSatinAlma" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{24E7A5CD-9EF7-8549-A5E7-975BA7B54B3B}" name="LinkOrnekSayfa" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{41F91A10-7B43-4141-8F7A-880821EDAE04}" name="Yeni" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{9A4CA489-4131-174D-A0E9-DBAB8A03CF2A}" name="Populer" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{1F5D9ECD-F726-0749-A5AA-BEB64825AF02}" name="UrunId" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{E9D9E9C8-FC70-2849-B43A-D3F8733E7397}" name="SinifId" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{CB0A29F0-93D1-4642-8A62-01AA7D368341}" name="BransId" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{400A9858-C2E9-5540-B651-910CEF8D016F}" name="KategoriId" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F9F1E652-6601-F04D-8DD0-09E25FBE2A16}" name="Baslik" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{3B28419D-442A-B04B-BFBF-E76F5887D2F3}" name="Icerik" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{80CA3F0B-8C7C-D741-98F2-165AD886AF65}" name="Gorsel" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{EE4E33E0-FD50-C442-B60C-832136CFE4BB}" name="LinkSatinAlma" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{24E7A5CD-9EF7-8549-A5E7-975BA7B54B3B}" name="LinkOrnekSayfa" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{41F91A10-7B43-4141-8F7A-880821EDAE04}" name="Yeni" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9A4CA489-4131-174D-A0E9-DBAB8A03CF2A}" name="Populer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6295,7 +6241,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="91" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6305,22 +6251,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>1784</v>
-      </c>
-      <c r="B1" s="22" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6430,9 +6376,6 @@
     <hyperlink ref="E3:E6" r:id="rId2" display="https://place-hold.it/400x400" xr:uid="{9D00D590-A2BB-9C40-87F8-BBFA357A46D7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -6473,7 +6416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D047E7-EA6B-3E4B-AFD8-759E54C63E66}">
   <dimension ref="A1:I219"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -12839,7 +12782,7 @@
   <dimension ref="A1:VB1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12873,10 +12816,10 @@
         <v>3</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>1781</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>1782</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>1783</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>11</v>
@@ -12899,7 +12842,7 @@
         <v>1599</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>1696</v>
+        <v>1784</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -12921,7 +12864,7 @@
         <v>1600</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -12943,7 +12886,7 @@
         <v>1601</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -12958,11 +12901,14 @@
       <c r="A5" s="14">
         <v>4</v>
       </c>
+      <c r="B5" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="E5" s="13" t="s">
         <v>1602</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
@@ -12981,7 +12927,7 @@
         <v>1603</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
@@ -13000,7 +12946,7 @@
         <v>1604</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
@@ -13020,7 +12966,7 @@
         <v>1605</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
@@ -13040,7 +12986,7 @@
         <v>1606</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
@@ -13060,7 +13006,7 @@
         <v>1607</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
@@ -13080,7 +13026,7 @@
         <v>1608</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -13100,7 +13046,7 @@
         <v>1609</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13"/>
@@ -13120,7 +13066,7 @@
         <v>1610</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
@@ -13140,7 +13086,7 @@
         <v>1611</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
@@ -13160,7 +13106,7 @@
         <v>1612</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
@@ -13180,7 +13126,7 @@
         <v>1613</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
@@ -13200,7 +13146,7 @@
         <v>1614</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -13220,7 +13166,7 @@
         <v>1615</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
@@ -13240,7 +13186,7 @@
         <v>1616</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
@@ -13260,7 +13206,7 @@
         <v>1617</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
@@ -13280,7 +13226,7 @@
         <v>1618</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
@@ -13300,7 +13246,7 @@
         <v>1619</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -13320,7 +13266,7 @@
         <v>1620</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
@@ -13340,7 +13286,7 @@
         <v>1621</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -13360,7 +13306,7 @@
         <v>1622</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
@@ -13380,7 +13326,7 @@
         <v>1623</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
@@ -13400,7 +13346,7 @@
         <v>1624</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
@@ -13420,7 +13366,7 @@
         <v>1625</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
@@ -13440,7 +13386,7 @@
         <v>1626</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
@@ -13460,7 +13406,7 @@
         <v>1627</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
@@ -13480,7 +13426,7 @@
         <v>1628</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
@@ -13500,7 +13446,7 @@
         <v>1629</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
@@ -13520,7 +13466,7 @@
         <v>1630</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
@@ -13540,7 +13486,7 @@
         <v>1631</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
@@ -13560,7 +13506,7 @@
         <v>1632</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -13580,7 +13526,7 @@
         <v>1633</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
@@ -13600,7 +13546,7 @@
         <v>1634</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
@@ -13620,7 +13566,7 @@
         <v>1635</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
@@ -13640,7 +13586,7 @@
         <v>1636</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -13660,7 +13606,7 @@
         <v>1637</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
@@ -13680,7 +13626,7 @@
         <v>1638</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
@@ -13700,7 +13646,7 @@
         <v>1639</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
@@ -13720,7 +13666,7 @@
         <v>1640</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
@@ -13740,7 +13686,7 @@
         <v>1641</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
@@ -13760,7 +13706,7 @@
         <v>1642</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
@@ -13780,7 +13726,7 @@
         <v>1643</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
@@ -13800,7 +13746,7 @@
         <v>1644</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
@@ -13820,7 +13766,7 @@
         <v>1645</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
@@ -13840,7 +13786,7 @@
         <v>1646</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
@@ -13860,7 +13806,7 @@
         <v>1647</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
@@ -13880,7 +13826,7 @@
         <v>1648</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
@@ -13900,7 +13846,7 @@
         <v>1649</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
@@ -13920,7 +13866,7 @@
         <v>1650</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
@@ -13940,7 +13886,7 @@
         <v>1651</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
@@ -13960,7 +13906,7 @@
         <v>1652</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
@@ -13980,7 +13926,7 @@
         <v>1653</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
@@ -14000,7 +13946,7 @@
         <v>1654</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
@@ -14020,7 +13966,7 @@
         <v>1655</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
@@ -14040,7 +13986,7 @@
         <v>1656</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
@@ -14060,7 +14006,7 @@
         <v>1657</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
@@ -14080,7 +14026,7 @@
         <v>1658</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
@@ -14100,7 +14046,7 @@
         <v>1659</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
@@ -14120,7 +14066,7 @@
         <v>1660</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
@@ -14140,7 +14086,7 @@
         <v>1661</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
@@ -14160,7 +14106,7 @@
         <v>1662</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
@@ -14180,7 +14126,7 @@
         <v>1663</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
@@ -14200,7 +14146,7 @@
         <v>1664</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H67" s="13"/>
       <c r="I67" s="13"/>
@@ -14220,7 +14166,7 @@
         <v>1665</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="13"/>
@@ -14240,7 +14186,7 @@
         <v>1666</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="13"/>
@@ -14260,7 +14206,7 @@
         <v>1667</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
@@ -14280,7 +14226,7 @@
         <v>1668</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
@@ -14300,7 +14246,7 @@
         <v>1669</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
@@ -14320,7 +14266,7 @@
         <v>1670</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="13"/>
@@ -14340,7 +14286,7 @@
         <v>1671</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
@@ -14360,7 +14306,7 @@
         <v>1672</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="13"/>
@@ -14380,7 +14326,7 @@
         <v>1673</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13"/>
@@ -14400,7 +14346,7 @@
         <v>1674</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
@@ -14420,7 +14366,7 @@
         <v>1675</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="H78" s="13"/>
       <c r="I78" s="13"/>
@@ -14440,7 +14386,7 @@
         <v>1676</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="13"/>
@@ -14460,7 +14406,7 @@
         <v>1677</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
       <c r="H80" s="13"/>
       <c r="I80" s="13"/>
@@ -14480,7 +14426,7 @@
         <v>1678</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13"/>
@@ -14500,7 +14446,7 @@
         <v>1679</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
@@ -14562,7 +14508,7 @@
         <v>1680</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="13"/>
@@ -14582,7 +14528,7 @@
         <v>1681</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="13"/>
@@ -14602,7 +14548,7 @@
         <v>1682</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
@@ -14622,7 +14568,7 @@
         <v>1683</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="13"/>
@@ -14642,7 +14588,7 @@
         <v>1684</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H87" s="13"/>
       <c r="I87" s="13"/>
@@ -14704,7 +14650,7 @@
         <v>1685</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
@@ -14724,7 +14670,7 @@
         <v>1686</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
@@ -14744,7 +14690,7 @@
         <v>1687</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="H90" s="13"/>
       <c r="I90" s="13"/>
@@ -14764,7 +14710,7 @@
         <v>1688</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="H91" s="13"/>
       <c r="I91" s="13"/>
@@ -14784,7 +14730,7 @@
         <v>1689</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="H92" s="13"/>
       <c r="I92" s="13"/>
@@ -14804,7 +14750,7 @@
         <v>1690</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
@@ -14824,7 +14770,7 @@
         <v>1691</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H94" s="13"/>
       <c r="I94" s="13"/>
@@ -14844,7 +14790,7 @@
         <v>1692</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="H95" s="13"/>
       <c r="I95" s="13"/>
@@ -14864,7 +14810,7 @@
         <v>1693</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="H96" s="13"/>
       <c r="I96" s="13"/>
@@ -14884,7 +14830,7 @@
         <v>1694</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="H97" s="13"/>
       <c r="I97" s="13"/>
@@ -14904,7 +14850,7 @@
         <v>1695</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetsametyuzlu/Analiz/analiz-web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silay\OneDrive\Belgeler\GitHub\analiz-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17ED148-4681-044E-8BBB-6393E5C33C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854DB12-5359-42A7-890F-C5A37440CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7720" yWindow="760" windowWidth="26840" windowHeight="19920" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
   </bookViews>
   <sheets>
     <sheet name="Duyuru" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,6 @@
     <sheet name="Kategori" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1785">
   <si>
     <t>UrunId</t>
   </si>
@@ -5633,7 +5632,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Köprü" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
@@ -5922,7 +5921,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Teması">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6244,13 +6243,13 @@
       <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="2" customWidth="1"/>
-    <col min="2" max="6" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.19921875" style="2" customWidth="1"/>
+    <col min="2" max="6" width="30.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>1783</v>
       </c>
@@ -6270,7 +6269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6290,7 +6289,7 @@
         <v>45639</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6310,7 +6309,7 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>45605</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6387,22 +6386,22 @@
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
@@ -6420,14 +6419,14 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" style="2" customWidth="1"/>
-    <col min="3" max="4" width="30.83203125" style="9" customWidth="1"/>
-    <col min="5" max="9" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="30.796875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="30.796875" style="9" customWidth="1"/>
+    <col min="5" max="9" width="30.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -6456,7 +6455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6485,7 +6484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6572,7 +6571,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6601,7 +6600,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6659,7 +6658,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6688,7 +6687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6717,7 +6716,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6746,7 +6745,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6775,7 +6774,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6804,7 +6803,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6833,7 +6832,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6862,7 +6861,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6920,7 +6919,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6949,7 +6948,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6978,7 +6977,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7007,7 +7006,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7036,7 +7035,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7065,7 +7064,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7094,7 +7093,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7123,7 +7122,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7152,7 +7151,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -7181,7 +7180,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7210,7 +7209,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7239,7 +7238,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -7268,7 +7267,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -7326,7 +7325,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -7355,7 +7354,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -7384,7 +7383,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7442,7 +7441,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7471,7 +7470,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7500,7 +7499,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -7558,7 +7557,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -7587,7 +7586,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -7616,7 +7615,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -7645,7 +7644,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -7674,7 +7673,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -7703,7 +7702,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -7732,7 +7731,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -7761,7 +7760,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -7790,7 +7789,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -7819,7 +7818,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -7848,7 +7847,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -7906,7 +7905,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>52</v>
       </c>
@@ -7935,7 +7934,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -7993,7 +7992,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -8022,7 +8021,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>56</v>
       </c>
@@ -8051,7 +8050,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>57</v>
       </c>
@@ -8080,7 +8079,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>58</v>
       </c>
@@ -8109,7 +8108,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>59</v>
       </c>
@@ -8138,7 +8137,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>61</v>
       </c>
@@ -8167,7 +8166,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>62</v>
       </c>
@@ -8196,7 +8195,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>63</v>
       </c>
@@ -8225,7 +8224,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>64</v>
       </c>
@@ -8254,7 +8253,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>65</v>
       </c>
@@ -8283,7 +8282,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>66</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>67</v>
       </c>
@@ -8341,7 +8340,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>68</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>69</v>
       </c>
@@ -8399,7 +8398,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>70</v>
       </c>
@@ -8428,7 +8427,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>71</v>
       </c>
@@ -8457,7 +8456,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>72</v>
       </c>
@@ -8486,7 +8485,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>73</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>74</v>
       </c>
@@ -8544,7 +8543,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>75</v>
       </c>
@@ -8573,7 +8572,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>76</v>
       </c>
@@ -8602,7 +8601,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>77</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>78</v>
       </c>
@@ -8660,7 +8659,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>79</v>
       </c>
@@ -8689,7 +8688,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>80</v>
       </c>
@@ -8718,7 +8717,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>81</v>
       </c>
@@ -8747,7 +8746,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>82</v>
       </c>
@@ -8776,7 +8775,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>83</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>84</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>85</v>
       </c>
@@ -8863,7 +8862,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>86</v>
       </c>
@@ -8892,7 +8891,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>87</v>
       </c>
@@ -8921,7 +8920,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>88</v>
       </c>
@@ -8950,7 +8949,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>89</v>
       </c>
@@ -8979,7 +8978,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>90</v>
       </c>
@@ -9008,7 +9007,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>91</v>
       </c>
@@ -9037,7 +9036,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>92</v>
       </c>
@@ -9066,7 +9065,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>94</v>
       </c>
@@ -9095,7 +9094,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>95</v>
       </c>
@@ -9124,7 +9123,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>96</v>
       </c>
@@ -9153,7 +9152,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>97</v>
       </c>
@@ -9182,7 +9181,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>98</v>
       </c>
@@ -9211,7 +9210,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>99</v>
       </c>
@@ -9240,7 +9239,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>100</v>
       </c>
@@ -9269,7 +9268,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>101</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>103</v>
       </c>
@@ -9327,7 +9326,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>104</v>
       </c>
@@ -9356,7 +9355,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>105</v>
       </c>
@@ -9385,7 +9384,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>106</v>
       </c>
@@ -9414,7 +9413,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>107</v>
       </c>
@@ -9443,7 +9442,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>108</v>
       </c>
@@ -9472,7 +9471,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>109</v>
       </c>
@@ -9501,7 +9500,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>110</v>
       </c>
@@ -9530,7 +9529,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>112</v>
       </c>
@@ -9559,7 +9558,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>113</v>
       </c>
@@ -9588,7 +9587,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>114</v>
       </c>
@@ -9617,7 +9616,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>115</v>
       </c>
@@ -9646,7 +9645,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>116</v>
       </c>
@@ -9675,7 +9674,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>117</v>
       </c>
@@ -9704,7 +9703,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>118</v>
       </c>
@@ -9733,7 +9732,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>119</v>
       </c>
@@ -9762,7 +9761,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>120</v>
       </c>
@@ -9791,7 +9790,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>121</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>122</v>
       </c>
@@ -9849,7 +9848,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>123</v>
       </c>
@@ -9878,7 +9877,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>124</v>
       </c>
@@ -9907,7 +9906,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>125</v>
       </c>
@@ -9936,7 +9935,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>127</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>128</v>
       </c>
@@ -9994,7 +9993,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>129</v>
       </c>
@@ -10023,7 +10022,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>130</v>
       </c>
@@ -10052,7 +10051,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>131</v>
       </c>
@@ -10081,7 +10080,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>132</v>
       </c>
@@ -10110,7 +10109,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>133</v>
       </c>
@@ -10139,7 +10138,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>134</v>
       </c>
@@ -10168,7 +10167,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>135</v>
       </c>
@@ -10197,7 +10196,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>136</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>137</v>
       </c>
@@ -10255,7 +10254,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>138</v>
       </c>
@@ -10284,7 +10283,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>139</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>140</v>
       </c>
@@ -10342,7 +10341,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>141</v>
       </c>
@@ -10371,7 +10370,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>142</v>
       </c>
@@ -10400,7 +10399,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>143</v>
       </c>
@@ -10429,7 +10428,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>144</v>
       </c>
@@ -10458,7 +10457,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>145</v>
       </c>
@@ -10487,7 +10486,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>146</v>
       </c>
@@ -10516,7 +10515,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>147</v>
       </c>
@@ -10545,7 +10544,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>148</v>
       </c>
@@ -10574,7 +10573,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>149</v>
       </c>
@@ -10603,7 +10602,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>150</v>
       </c>
@@ -10632,7 +10631,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>151</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>152</v>
       </c>
@@ -10690,7 +10689,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>153</v>
       </c>
@@ -10719,7 +10718,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>154</v>
       </c>
@@ -10748,7 +10747,7 @@
         <v>818</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>155</v>
       </c>
@@ -10777,7 +10776,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>156</v>
       </c>
@@ -10806,7 +10805,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>157</v>
       </c>
@@ -10835,7 +10834,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>158</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>159</v>
       </c>
@@ -10893,7 +10892,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>160</v>
       </c>
@@ -10922,7 +10921,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>161</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>162</v>
       </c>
@@ -10980,7 +10979,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>163</v>
       </c>
@@ -11009,7 +11008,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>164</v>
       </c>
@@ -11038,7 +11037,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>165</v>
       </c>
@@ -11067,7 +11066,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>166</v>
       </c>
@@ -11096,7 +11095,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>167</v>
       </c>
@@ -11125,7 +11124,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>168</v>
       </c>
@@ -11154,7 +11153,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>169</v>
       </c>
@@ -11183,7 +11182,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>170</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>171</v>
       </c>
@@ -11241,7 +11240,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>172</v>
       </c>
@@ -11270,7 +11269,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>173</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>174</v>
       </c>
@@ -11328,7 +11327,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>175</v>
       </c>
@@ -11357,7 +11356,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>176</v>
       </c>
@@ -11386,7 +11385,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>177</v>
       </c>
@@ -11415,7 +11414,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>178</v>
       </c>
@@ -11444,7 +11443,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>179</v>
       </c>
@@ -11473,7 +11472,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>180</v>
       </c>
@@ -11502,7 +11501,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>181</v>
       </c>
@@ -11531,7 +11530,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>182</v>
       </c>
@@ -11560,7 +11559,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>183</v>
       </c>
@@ -11589,7 +11588,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>184</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>185</v>
       </c>
@@ -11641,7 +11640,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>186</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>187</v>
       </c>
@@ -11699,7 +11698,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>188</v>
       </c>
@@ -11728,7 +11727,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>189</v>
       </c>
@@ -11757,7 +11756,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>190</v>
       </c>
@@ -11786,7 +11785,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>191</v>
       </c>
@@ -11815,7 +11814,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>192</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>193</v>
       </c>
@@ -11873,7 +11872,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>194</v>
       </c>
@@ -11902,7 +11901,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>195</v>
       </c>
@@ -11931,7 +11930,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>196</v>
       </c>
@@ -11960,7 +11959,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>197</v>
       </c>
@@ -11989,7 +11988,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>198</v>
       </c>
@@ -12018,7 +12017,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>199</v>
       </c>
@@ -12047,7 +12046,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>200</v>
       </c>
@@ -12076,7 +12075,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>201</v>
       </c>
@@ -12105,7 +12104,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>202</v>
       </c>
@@ -12134,7 +12133,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>203</v>
       </c>
@@ -12163,7 +12162,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>204</v>
       </c>
@@ -12192,7 +12191,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>205</v>
       </c>
@@ -12221,7 +12220,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>206</v>
       </c>
@@ -12250,7 +12249,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>207</v>
       </c>
@@ -12279,7 +12278,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>208</v>
       </c>
@@ -12308,7 +12307,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>209</v>
       </c>
@@ -12337,7 +12336,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>210</v>
       </c>
@@ -12366,7 +12365,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>211</v>
       </c>
@@ -12395,7 +12394,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>212</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>213</v>
       </c>
@@ -12453,7 +12452,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>214</v>
       </c>
@@ -12482,7 +12481,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>215</v>
       </c>
@@ -12511,7 +12510,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>216</v>
       </c>
@@ -12540,7 +12539,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>217</v>
       </c>
@@ -12569,7 +12568,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>218</v>
       </c>
@@ -12598,7 +12597,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>219</v>
       </c>
@@ -12627,7 +12626,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>220</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>221</v>
       </c>
@@ -12685,7 +12684,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>222</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>223</v>
       </c>
@@ -12743,7 +12742,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>224</v>
       </c>
@@ -12782,18 +12781,18 @@
   <dimension ref="A1:VB1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="4" width="30.83203125" style="14" customWidth="1"/>
-    <col min="5" max="10" width="30.83203125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="30.83203125" style="15" customWidth="1"/>
+    <col min="1" max="4" width="30.796875" style="14" customWidth="1"/>
+    <col min="5" max="10" width="30.796875" style="12" customWidth="1"/>
+    <col min="11" max="11" width="30.796875" style="15" customWidth="1"/>
     <col min="2005" max="2005" width="2.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -12828,7 +12827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -12853,7 +12852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -12875,7 +12874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -12897,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -12919,7 +12918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -12938,7 +12937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -12958,7 +12957,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -12978,9 +12977,12 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>19</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>1606</v>
@@ -12998,7 +13000,7 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -13018,7 +13020,7 @@
       </c>
       <c r="L10" s="11"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -13038,7 +13040,7 @@
       </c>
       <c r="L11" s="11"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -13058,7 +13060,7 @@
       </c>
       <c r="L12" s="11"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -13078,7 +13080,7 @@
       </c>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -13098,7 +13100,7 @@
       </c>
       <c r="L14" s="11"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -13118,7 +13120,7 @@
       </c>
       <c r="L15" s="11"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -13138,7 +13140,7 @@
       </c>
       <c r="L16" s="11"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -13158,7 +13160,7 @@
       </c>
       <c r="L17" s="11"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -13178,7 +13180,7 @@
       </c>
       <c r="L18" s="11"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -13198,7 +13200,7 @@
       </c>
       <c r="L19" s="11"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -13218,7 +13220,7 @@
       </c>
       <c r="L20" s="11"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -13238,7 +13240,7 @@
       </c>
       <c r="L21" s="11"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -13258,7 +13260,7 @@
       </c>
       <c r="L22" s="11"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -13278,7 +13280,7 @@
       </c>
       <c r="L23" s="11"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -13298,7 +13300,7 @@
       </c>
       <c r="L24" s="11"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -13318,7 +13320,7 @@
       </c>
       <c r="L25" s="11"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -13338,7 +13340,7 @@
       </c>
       <c r="L26" s="11"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -13358,7 +13360,7 @@
       </c>
       <c r="L27" s="11"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -13378,7 +13380,7 @@
       </c>
       <c r="L28" s="11"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -13398,7 +13400,7 @@
       </c>
       <c r="L29" s="11"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="14">
         <v>29</v>
       </c>
@@ -13418,7 +13420,7 @@
       </c>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="14">
         <v>30</v>
       </c>
@@ -13438,7 +13440,7 @@
       </c>
       <c r="L31" s="11"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="14">
         <v>31</v>
       </c>
@@ -13458,7 +13460,7 @@
       </c>
       <c r="L32" s="11"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="14">
         <v>32</v>
       </c>
@@ -13478,7 +13480,7 @@
       </c>
       <c r="L33" s="11"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="14">
         <v>33</v>
       </c>
@@ -13498,7 +13500,7 @@
       </c>
       <c r="L34" s="11"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="14">
         <v>34</v>
       </c>
@@ -13518,7 +13520,7 @@
       </c>
       <c r="L35" s="11"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="14">
         <v>35</v>
       </c>
@@ -13538,7 +13540,7 @@
       </c>
       <c r="L36" s="11"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="14">
         <v>36</v>
       </c>
@@ -13558,7 +13560,7 @@
       </c>
       <c r="L37" s="11"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="14">
         <v>37</v>
       </c>
@@ -13578,7 +13580,7 @@
       </c>
       <c r="L38" s="11"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="14">
         <v>38</v>
       </c>
@@ -13598,7 +13600,7 @@
       </c>
       <c r="L39" s="11"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <v>39</v>
       </c>
@@ -13618,7 +13620,7 @@
       </c>
       <c r="L40" s="11"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>40</v>
       </c>
@@ -13638,7 +13640,7 @@
       </c>
       <c r="L41" s="11"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="14">
         <v>41</v>
       </c>
@@ -13658,7 +13660,7 @@
       </c>
       <c r="L42" s="11"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>42</v>
       </c>
@@ -13678,7 +13680,7 @@
       </c>
       <c r="L43" s="11"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>43</v>
       </c>
@@ -13698,7 +13700,7 @@
       </c>
       <c r="L44" s="11"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>44</v>
       </c>
@@ -13718,7 +13720,7 @@
       </c>
       <c r="L45" s="11"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="14">
         <v>45</v>
       </c>
@@ -13738,7 +13740,7 @@
       </c>
       <c r="L46" s="11"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="14">
         <v>46</v>
       </c>
@@ -13758,7 +13760,7 @@
       </c>
       <c r="L47" s="11"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="14">
         <v>47</v>
       </c>
@@ -13778,7 +13780,7 @@
       </c>
       <c r="L48" s="11"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>48</v>
       </c>
@@ -13798,7 +13800,7 @@
       </c>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>49</v>
       </c>
@@ -13818,7 +13820,7 @@
       </c>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>50</v>
       </c>
@@ -13838,7 +13840,7 @@
       </c>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="14">
         <v>51</v>
       </c>
@@ -13858,7 +13860,7 @@
       </c>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -13878,7 +13880,7 @@
       </c>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <v>53</v>
       </c>
@@ -13898,7 +13900,7 @@
       </c>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="14">
         <v>54</v>
       </c>
@@ -13918,7 +13920,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>55</v>
       </c>
@@ -13938,7 +13940,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>56</v>
       </c>
@@ -13958,7 +13960,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>57</v>
       </c>
@@ -13978,7 +13980,7 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="14">
         <v>58</v>
       </c>
@@ -13998,7 +14000,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="14">
         <v>59</v>
       </c>
@@ -14018,7 +14020,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="14">
         <v>60</v>
       </c>
@@ -14038,7 +14040,7 @@
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="14">
         <v>61</v>
       </c>
@@ -14058,7 +14060,7 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>62</v>
       </c>
@@ -14078,7 +14080,7 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="14">
         <v>63</v>
       </c>
@@ -14098,7 +14100,7 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="14">
         <v>64</v>
       </c>
@@ -14118,7 +14120,7 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="14">
         <v>65</v>
       </c>
@@ -14138,7 +14140,7 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="14">
         <v>66</v>
       </c>
@@ -14158,7 +14160,7 @@
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <v>67</v>
       </c>
@@ -14178,7 +14180,7 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="14">
         <v>68</v>
       </c>
@@ -14198,7 +14200,7 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="14">
         <v>69</v>
       </c>
@@ -14218,7 +14220,7 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="14">
         <v>70</v>
       </c>
@@ -14238,7 +14240,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="14">
         <v>71</v>
       </c>
@@ -14258,7 +14260,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="14">
         <v>72</v>
       </c>
@@ -14278,7 +14280,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -14298,7 +14300,7 @@
       </c>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="14">
         <v>74</v>
       </c>
@@ -14318,7 +14320,7 @@
       </c>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -14338,7 +14340,7 @@
       </c>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="14">
         <v>76</v>
       </c>
@@ -14358,7 +14360,7 @@
       </c>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="14">
         <v>77</v>
       </c>
@@ -14378,7 +14380,7 @@
       </c>
       <c r="L78" s="11"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="14">
         <v>78</v>
       </c>
@@ -14398,7 +14400,7 @@
       </c>
       <c r="L79" s="11"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="14">
         <v>79</v>
       </c>
@@ -14418,7 +14420,7 @@
       </c>
       <c r="L80" s="11"/>
     </row>
-    <row r="81" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A81" s="14">
         <v>80</v>
       </c>
@@ -14438,7 +14440,7 @@
       </c>
       <c r="L81" s="11"/>
     </row>
-    <row r="82" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -14500,7 +14502,7 @@
       <c r="UN82" s="10"/>
       <c r="VA82" s="10"/>
     </row>
-    <row r="83" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -14520,7 +14522,7 @@
       </c>
       <c r="L83" s="11"/>
     </row>
-    <row r="84" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -14540,7 +14542,7 @@
       </c>
       <c r="L84" s="11"/>
     </row>
-    <row r="85" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -14560,7 +14562,7 @@
       </c>
       <c r="L85" s="11"/>
     </row>
-    <row r="86" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -14580,7 +14582,7 @@
       </c>
       <c r="L86" s="11"/>
     </row>
-    <row r="87" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -14642,7 +14644,7 @@
       <c r="UO87" s="10"/>
       <c r="VB87" s="10"/>
     </row>
-    <row r="88" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -14662,7 +14664,7 @@
       </c>
       <c r="L88" s="11"/>
     </row>
-    <row r="89" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -14682,7 +14684,7 @@
       </c>
       <c r="L89" s="11"/>
     </row>
-    <row r="90" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -14702,7 +14704,7 @@
       </c>
       <c r="L90" s="11"/>
     </row>
-    <row r="91" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -14722,7 +14724,7 @@
       </c>
       <c r="L91" s="11"/>
     </row>
-    <row r="92" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -14742,7 +14744,7 @@
       </c>
       <c r="L92" s="11"/>
     </row>
-    <row r="93" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -14762,7 +14764,7 @@
       </c>
       <c r="L93" s="11"/>
     </row>
-    <row r="94" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -14782,7 +14784,7 @@
       </c>
       <c r="L94" s="11"/>
     </row>
-    <row r="95" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -14802,7 +14804,7 @@
       </c>
       <c r="L95" s="11"/>
     </row>
-    <row r="96" spans="1:574" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:574" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -14822,7 +14824,7 @@
       </c>
       <c r="L96" s="11"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -14842,7 +14844,7 @@
       </c>
       <c r="L97" s="11"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="14">
         <v>97</v>
       </c>
@@ -14862,27 +14864,27 @@
       </c>
       <c r="L98" s="11"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E99" s="13"/>
       <c r="F99" s="13"/>
       <c r="L99" s="11"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L100" s="11"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L101" s="11"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L102" s="11"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L103" s="11"/>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="L104" s="11"/>
     </row>
-    <row r="1048576" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1048576" s="16"/>
       <c r="B1048576" s="16"/>
       <c r="C1048576" s="16"/>
@@ -14936,12 +14938,12 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" customWidth="1"/>
+    <col min="1" max="2" width="30.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -14949,7 +14951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -14957,7 +14959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -14965,7 +14967,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -14973,7 +14975,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -14981,7 +14983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -14989,7 +14991,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -14997,7 +14999,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -15005,7 +15007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -15026,12 +15028,12 @@
       <selection sqref="A1:B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="30.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -15039,7 +15041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -15047,7 +15049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15055,7 +15057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -15063,7 +15065,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -15071,7 +15073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -15079,7 +15081,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -15087,7 +15089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -15108,12 +15110,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="30.83203125" style="2" customWidth="1"/>
+    <col min="1" max="2" width="30.796875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -15121,7 +15123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -15129,7 +15131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -15137,7 +15139,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -15145,7 +15147,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -15153,7 +15155,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -15161,7 +15163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -15169,7 +15171,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -15177,7 +15179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silay\OneDrive\Belgeler\GitHub\analiz-web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5854DB12-5359-42A7-890F-C5A37440CE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F3DC1F-BDA0-4651-843E-18BEB939688F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{449BC400-D8E8-6243-870D-15DBC8ADB87A}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="1785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="1788">
   <si>
     <t>UrunId</t>
   </si>
@@ -5397,6 +5397,15 @@
   </si>
   <si>
     <t>/static/gorsel1.jpg</t>
+  </si>
+  <si>
+    <t>1.SINIF KIŞ TATİL SETİ</t>
+  </si>
+  <si>
+    <t>/static/urun/2.png</t>
+  </si>
+  <si>
+    <t>Tüm Dersler</t>
   </si>
 </sst>
 </file>
@@ -12780,8 +12789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC60D17A-F93C-8A4F-9FCF-005B63D2EC4B}">
   <dimension ref="A1:VB1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" workbookViewId="0">
+      <selection activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -14848,6 +14857,12 @@
       <c r="A98" s="14">
         <v>97</v>
       </c>
+      <c r="B98" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>1787</v>
+      </c>
       <c r="E98" s="13" t="s">
         <v>1695</v>
       </c>
@@ -14865,8 +14880,19 @@
       <c r="L98" s="11"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="E99" s="13"/>
+      <c r="E99" s="13" t="s">
+        <v>1785</v>
+      </c>
       <c r="F99" s="13"/>
+      <c r="G99" s="12" t="s">
+        <v>1786</v>
+      </c>
+      <c r="J99" s="12">
+        <v>1</v>
+      </c>
+      <c r="K99" s="15">
+        <v>1</v>
+      </c>
       <c r="L99" s="11"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
@@ -15022,10 +15048,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{254C1723-26A6-F44B-89F3-781D6ED18CE1}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -15095,6 +15121,14 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1787</v>
       </c>
     </row>
   </sheetData>
